--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,15 +1338,15 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43900</v>
+        <v>43957</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1354,15 +1354,15 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43901</v>
+        <v>43958</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1370,15 +1370,15 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43902</v>
+        <v>43959</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1458,15 +1458,15 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1525,12 +1525,12 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1541,12 +1541,12 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1557,12 +1557,12 @@
         <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1570,15 +1570,15 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>2</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>2</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1618,15 +1618,15 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1634,15 +1634,15 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1650,15 +1650,15 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1666,15 +1666,15 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D81" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1682,15 +1682,15 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1698,15 +1698,15 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,15 +1714,15 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D85" t="n">
         <v>6</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,15 +1746,15 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,15 +1762,15 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,15 +1778,15 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,15 +1794,15 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D92" t="n">
         <v>5</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,15 +1858,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,15 +1874,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,15 +1890,15 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,15 +1906,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,15 +1954,15 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,15 +2002,15 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,15 +2050,15 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,15 +2066,15 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2101,12 +2101,12 @@
         <v>8</v>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,15 +2114,15 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,15 +2146,15 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D113" t="n">
         <v>6</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,15 +2210,15 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43953</v>
+        <v>43929</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,15 +2226,15 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43954</v>
+        <v>43930</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,15 +2242,15 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43955</v>
+        <v>43952</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,15 +2258,15 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,111 +2274,111 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43900</v>
+        <v>43954</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>7</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43901</v>
+        <v>43955</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43902</v>
+        <v>43956</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43903</v>
+        <v>43957</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43904</v>
+        <v>43958</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43905</v>
+        <v>43959</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,15 +2386,15 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D126" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43907</v>
+        <v>43901</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,15 +2402,15 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,15 +2418,15 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D128" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43909</v>
+        <v>43903</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,15 +2434,15 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D129" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43910</v>
+        <v>43904</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,15 +2450,15 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D130" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43911</v>
+        <v>43905</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,15 +2466,15 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D131" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43912</v>
+        <v>43906</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="D132" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="D133" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43914</v>
+        <v>43908</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="D134" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="D135" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43916</v>
+        <v>43910</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D136" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43917</v>
+        <v>43911</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="D137" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43918</v>
+        <v>43912</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="D138" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43919</v>
+        <v>43913</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,15 +2594,15 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="D139" t="n">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,15 +2610,15 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="D140" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43921</v>
+        <v>43915</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,15 +2626,15 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="D141" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43899</v>
+        <v>43917</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="D144" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43931</v>
+        <v>43919</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="D145" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43932</v>
+        <v>43920</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,15 +2706,15 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="D146" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43933</v>
+        <v>43921</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="D147" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43934</v>
+        <v>43898</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43935</v>
+        <v>43899</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>144</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="D150" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43937</v>
+        <v>43931</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D151" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43938</v>
+        <v>43932</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="D152" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43939</v>
+        <v>43933</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="D153" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43940</v>
+        <v>43934</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="D154" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43923</v>
+        <v>43935</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="D155" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43941</v>
+        <v>43936</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D156" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D157" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="D158" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43944</v>
+        <v>43939</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D159" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43945</v>
+        <v>43940</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D160" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43946</v>
+        <v>43923</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="D161" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43947</v>
+        <v>43941</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D162" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43948</v>
+        <v>43942</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D163" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43949</v>
+        <v>43943</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D164" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43950</v>
+        <v>43944</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3013,12 +3013,12 @@
         <v>85</v>
       </c>
       <c r="D165" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43924</v>
+        <v>43945</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="D166" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43951</v>
+        <v>43946</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D167" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43925</v>
+        <v>43947</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="D168" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43926</v>
+        <v>43948</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>237</v>
+        <v>94</v>
       </c>
       <c r="D169" t="n">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43927</v>
+        <v>43949</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D170" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43928</v>
+        <v>43950</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="D171" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43929</v>
+        <v>43924</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D172" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43930</v>
+        <v>43951</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="D173" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43952</v>
+        <v>43925</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="D174" t="n">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43953</v>
+        <v>43926</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="D175" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43954</v>
+        <v>43927</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="D176" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43955</v>
+        <v>43928</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="D177" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43956</v>
+        <v>43929</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,159 +3218,159 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="D178" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43900</v>
+        <v>43930</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43901</v>
+        <v>43952</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43902</v>
+        <v>43953</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43903</v>
+        <v>43954</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43904</v>
+        <v>43955</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43905</v>
+        <v>43956</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43906</v>
+        <v>43957</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43907</v>
+        <v>43958</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43908</v>
+        <v>43959</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43909</v>
+        <v>43900</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43910</v>
+        <v>43901</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43911</v>
+        <v>43902</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43912</v>
+        <v>43903</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43913</v>
+        <v>43904</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43914</v>
+        <v>43905</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43915</v>
+        <v>43906</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43916</v>
+        <v>43907</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D195" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43917</v>
+        <v>43908</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D196" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43918</v>
+        <v>43909</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D197" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43919</v>
+        <v>43910</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D198" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43920</v>
+        <v>43911</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D199" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43921</v>
+        <v>43912</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D200" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43898</v>
+        <v>43913</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43899</v>
+        <v>43914</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43922</v>
+        <v>43915</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D203" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43931</v>
+        <v>43916</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D204" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43932</v>
+        <v>43917</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D205" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43933</v>
+        <v>43918</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D206" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43934</v>
+        <v>43919</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D207" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43935</v>
+        <v>43920</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D208" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43936</v>
+        <v>43921</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D209" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43937</v>
+        <v>43898</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43938</v>
+        <v>43899</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43939</v>
+        <v>43922</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D212" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43940</v>
+        <v>43931</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D213" t="n">
         <v>9</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43923</v>
+        <v>43932</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D214" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43941</v>
+        <v>43933</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3813,12 +3813,12 @@
         <v>24</v>
       </c>
       <c r="D215" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43942</v>
+        <v>43934</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D216" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43943</v>
+        <v>43935</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D217" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43944</v>
+        <v>43936</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D218" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43945</v>
+        <v>43937</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D219" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43946</v>
+        <v>43938</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D220" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43947</v>
+        <v>43939</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3909,12 +3909,12 @@
         <v>18</v>
       </c>
       <c r="D221" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43948</v>
+        <v>43940</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D222" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43949</v>
+        <v>43923</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D223" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43950</v>
+        <v>43941</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D224" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43924</v>
+        <v>43942</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D225" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43951</v>
+        <v>43943</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D226" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43925</v>
+        <v>43944</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D227" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43926</v>
+        <v>43945</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D228" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43927</v>
+        <v>43946</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D229" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43928</v>
+        <v>43947</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D230" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43929</v>
+        <v>43948</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D231" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43930</v>
+        <v>43949</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D232" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43952</v>
+        <v>43950</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D233" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43953</v>
+        <v>43924</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D234" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43954</v>
+        <v>43951</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D235" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43955</v>
+        <v>43925</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,26 +4146,218 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D236" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
+        <v>43926</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>35</v>
+      </c>
+      <c r="D237" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43927</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>33</v>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43928</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>24</v>
+      </c>
+      <c r="D239" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43929</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>25</v>
+      </c>
+      <c r="D240" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43930</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>27</v>
+      </c>
+      <c r="D241" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>11</v>
+      </c>
+      <c r="D242" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>12</v>
+      </c>
+      <c r="D243" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>11</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>11</v>
+      </c>
+      <c r="D245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>43956</v>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
         <v>12</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D246" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>11</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>11</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>11</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,15 +1386,15 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1506,15 +1506,15 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1522,15 +1522,15 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1557,12 +1557,12 @@
         <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1586,15 +1586,15 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>2</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>2</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1666,15 +1666,15 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1682,15 +1682,15 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1698,15 +1698,15 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D84" t="n">
         <v>6</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D85" t="n">
         <v>6</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,15 +1746,15 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,15 +1778,15 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D89" t="n">
         <v>6</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,15 +1810,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" t="n">
         <v>5</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" t="n">
         <v>5</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" t="n">
         <v>5</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" t="n">
         <v>5</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1909,12 +1909,12 @@
         <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,15 +1954,15 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,15 +1970,15 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2053,12 +2053,12 @@
         <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,15 +2066,15 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,15 +2114,15 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,15 +2130,15 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,15 +2146,15 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,15 +2162,15 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="n">
         <v>6</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D115" t="n">
         <v>6</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,15 +2258,15 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,15 +2290,15 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2357,12 +2357,12 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2378,39 +2378,39 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,15 +2418,15 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,15 +2434,15 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D129" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,15 +2450,15 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,15 +2466,15 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D131" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D132" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D133" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D134" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D135" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D136" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D137" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D138" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,15 +2594,15 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D139" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,15 +2610,15 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D140" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,15 +2626,15 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D141" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D142" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D143" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D144" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D145" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,15 +2706,15 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D146" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D147" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D151" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D152" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D153" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D154" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D155" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D156" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D157" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D158" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D159" t="n">
         <v>35</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D160" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D161" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D162" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D163" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D164" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D165" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D166" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D167" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D168" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D169" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D170" t="n">
         <v>21</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D171" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D172" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D173" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D174" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D175" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D176" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D177" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D178" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D179" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D180" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43953</v>
+        <v>43930</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="D181" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43954</v>
+        <v>43952</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D182" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D183" t="n">
         <v>20</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D184" t="n">
         <v>20</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D185" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D186" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3365,60 +3365,60 @@
         <v>39</v>
       </c>
       <c r="D187" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D201" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D202" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D203" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D204" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D205" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D206" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D207" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D208" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3717,12 +3717,12 @@
         <v>40</v>
       </c>
       <c r="D209" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D212" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D215" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D216" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D217" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3861,12 +3861,12 @@
         <v>24</v>
       </c>
       <c r="D218" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D219" t="n">
         <v>8</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D220" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D221" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D222" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D223" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D224" t="n">
         <v>7</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D225" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D226" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D227" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D228" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D229" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D231" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D232" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D233" t="n">
         <v>5</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D234" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D235" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D236" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D237" t="n">
         <v>13</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D238" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D239" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D240" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D241" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D242" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43953</v>
+        <v>43929</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D243" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43954</v>
+        <v>43930</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D244" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43955</v>
+        <v>43952</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4293,12 +4293,12 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4309,12 +4309,12 @@
         <v>12</v>
       </c>
       <c r="D246" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4325,12 +4325,12 @@
         <v>11</v>
       </c>
       <c r="D247" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4341,22 +4341,86 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>12</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>11</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>11</v>
+      </c>
+      <c r="D251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>43959</v>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C249" t="n">
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
         <v>11</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>11</v>
+      </c>
+      <c r="D253" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43953</v>
+        <v>43961</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1282,15 +1282,15 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>2</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1349,12 +1349,12 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1402,15 +1402,15 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1522,15 +1522,15 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1538,15 +1538,15 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1573,12 +1573,12 @@
         <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1602,15 +1602,15 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>2</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1682,15 +1682,15 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1698,15 +1698,15 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,15 +1714,15 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D85" t="n">
         <v>6</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D86" t="n">
         <v>6</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,15 +1762,15 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,15 +1794,15 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D90" t="n">
         <v>6</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,15 +1826,15 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" t="n">
         <v>5</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="n">
         <v>5</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" t="n">
         <v>5</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" t="n">
         <v>5</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1925,12 +1925,12 @@
         <v>12</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,15 +1970,15 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,15 +1986,15 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2069,12 +2069,12 @@
         <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,15 +2130,15 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,15 +2146,15 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,15 +2162,15 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,15 +2178,15 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D113" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D116" t="n">
         <v>6</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,15 +2274,15 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43954</v>
+        <v>43961</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,15 +2306,15 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,15 +2322,15 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2373,12 +2373,12 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2389,12 +2389,12 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -2410,39 +2410,39 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,15 +2450,15 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,15 +2466,15 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D133" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D134" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D135" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D136" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D137" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D138" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,15 +2594,15 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D139" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,15 +2610,15 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D140" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,15 +2626,15 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D141" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D142" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D143" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D144" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D145" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,15 +2706,15 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D146" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D147" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D148" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D149" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D154" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D155" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D156" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D157" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D158" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D159" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D160" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D161" t="n">
         <v>35</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D162" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D163" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D164" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D165" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D166" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D167" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D168" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D169" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D170" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D171" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D172" t="n">
         <v>21</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D173" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D174" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D175" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D176" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D177" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D178" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D179" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D180" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D181" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D182" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43953</v>
+        <v>43930</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="D183" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43954</v>
+        <v>43952</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D184" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43955</v>
+        <v>43961</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D185" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D186" t="n">
         <v>20</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D187" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D188" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D189" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,63 +3410,63 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D190" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D204" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D205" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D206" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D207" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D208" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D209" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D210" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D211" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3765,12 +3765,12 @@
         <v>40</v>
       </c>
       <c r="D212" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D215" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D218" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D219" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D220" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3909,12 +3909,12 @@
         <v>24</v>
       </c>
       <c r="D221" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D222" t="n">
         <v>8</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D223" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D224" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D225" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D226" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D227" t="n">
         <v>7</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D228" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D229" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D230" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D231" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D232" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D234" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D235" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D236" t="n">
         <v>5</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D237" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D238" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D239" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D240" t="n">
         <v>13</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D241" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D242" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D243" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D244" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D245" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43953</v>
+        <v>43929</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D246" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43954</v>
+        <v>43930</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D247" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43955</v>
+        <v>43952</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4341,12 +4341,12 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D250" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4389,12 +4389,12 @@
         <v>11</v>
       </c>
       <c r="D251" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4405,22 +4405,86 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>12</v>
+      </c>
+      <c r="D253" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>11</v>
+      </c>
+      <c r="D254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>11</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>11</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C253" t="n">
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
         <v>11</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D257" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43953</v>
+        <v>43962</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1298,15 +1298,15 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>2</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1365,12 +1365,12 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1418,15 +1418,15 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1538,15 +1538,15 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1554,15 +1554,15 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1589,12 +1589,12 @@
         <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1618,15 +1618,15 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>2</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1698,15 +1698,15 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,15 +1714,15 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,15 +1730,15 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D86" t="n">
         <v>6</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,15 +1778,15 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,15 +1810,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,15 +1842,15 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
         <v>5</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" t="n">
         <v>5</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96" t="n">
         <v>5</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97" t="n">
         <v>5</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1941,12 +1941,12 @@
         <v>12</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,15 +1986,15 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,15 +2002,15 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2085,12 +2085,12 @@
         <v>9</v>
       </c>
       <c r="D107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,15 +2098,15 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,15 +2146,15 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,15 +2162,15 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,15 +2178,15 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D113" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,15 +2194,15 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D114" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" t="n">
         <v>6</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D117" t="n">
         <v>6</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,15 +2290,15 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,15 +2306,15 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43953</v>
+        <v>43961</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,15 +2322,15 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43954</v>
+        <v>43962</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,15 +2338,15 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,15 +2354,15 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D125" t="n">
         <v>2</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D126" t="n">
         <v>2</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2405,12 +2405,12 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2421,12 +2421,12 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -2442,39 +2442,39 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D135" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D136" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D137" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D138" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,15 +2594,15 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D139" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,15 +2610,15 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D140" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,15 +2626,15 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D141" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D142" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D143" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D144" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D145" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,15 +2706,15 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D146" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D147" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D148" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D149" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D150" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D151" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D155" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D156" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D157" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D158" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D159" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D160" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D161" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D162" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D163" t="n">
         <v>35</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D164" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D165" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D166" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D167" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D168" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D169" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D170" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D171" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D172" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D173" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D174" t="n">
         <v>21</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D175" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D176" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D177" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D178" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D179" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D180" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D181" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D182" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D183" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D184" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D185" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D186" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43954</v>
+        <v>43961</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D187" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43955</v>
+        <v>43962</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D188" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D189" t="n">
         <v>20</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D190" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D191" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D192" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,63 +3458,63 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D193" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D207" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D208" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D209" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D210" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D211" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D212" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D213" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D214" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3813,12 +3813,12 @@
         <v>40</v>
       </c>
       <c r="D215" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D218" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D221" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D222" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D223" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3957,12 +3957,12 @@
         <v>24</v>
       </c>
       <c r="D224" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D225" t="n">
         <v>8</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D226" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D227" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D228" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D229" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D230" t="n">
         <v>7</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D231" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D232" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D233" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D234" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D235" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D237" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D238" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D239" t="n">
         <v>5</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D240" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D241" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D242" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D243" t="n">
         <v>13</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D244" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D245" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D246" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D247" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D248" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43953</v>
+        <v>43930</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D250" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43954</v>
+        <v>43952</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43955</v>
+        <v>43961</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D252" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43956</v>
+        <v>43962</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D254" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4453,12 +4453,12 @@
         <v>11</v>
       </c>
       <c r="D255" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4469,22 +4469,86 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>12</v>
+      </c>
+      <c r="D257" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>11</v>
+      </c>
+      <c r="D258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>11</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>11</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C257" t="n">
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
         <v>11</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D261" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43953</v>
+        <v>43963</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1314,15 +1314,15 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>2</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1381,12 +1381,12 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1434,15 +1434,15 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1554,15 +1554,15 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1570,15 +1570,15 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1605,12 +1605,12 @@
         <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1634,15 +1634,15 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>2</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,15 +1714,15 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,15 +1730,15 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,15 +1746,15 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
         <v>6</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,15 +1794,15 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,15 +1826,15 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D92" t="n">
         <v>6</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,15 +1858,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" t="n">
         <v>5</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" t="n">
         <v>5</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" t="n">
         <v>5</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98" t="n">
         <v>5</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1957,12 +1957,12 @@
         <v>12</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,15 +2002,15 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,15 +2018,15 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2101,12 +2101,12 @@
         <v>9</v>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,15 +2114,15 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,15 +2162,15 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,15 +2178,15 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D113" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,15 +2194,15 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,15 +2210,15 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" t="n">
         <v>6</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D118" t="n">
         <v>6</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,15 +2306,15 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,15 +2322,15 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43953</v>
+        <v>43962</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,15 +2354,15 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43954</v>
+        <v>43963</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,15 +2370,15 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,15 +2386,15 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D127" t="n">
         <v>2</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D128" t="n">
         <v>2</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2437,12 +2437,12 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2453,12 +2453,12 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2474,39 +2474,39 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D137" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D138" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,15 +2594,15 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D139" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,15 +2610,15 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D140" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,15 +2626,15 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D141" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D142" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D143" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D144" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D145" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,15 +2706,15 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D146" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D147" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D148" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D149" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D150" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D151" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D152" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D153" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D158" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D159" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D160" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D161" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D162" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D163" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D164" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D165" t="n">
         <v>35</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D166" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D167" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D168" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D169" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D170" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D171" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D172" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D173" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D174" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D175" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D176" t="n">
         <v>21</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D177" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D178" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D179" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D180" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D181" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D182" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D183" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D184" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D185" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D186" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D187" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D188" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43953</v>
+        <v>43961</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D189" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43954</v>
+        <v>43962</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D190" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43955</v>
+        <v>43963</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D191" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D192" t="n">
         <v>20</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D193" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D194" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D195" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,63 +3506,63 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D196" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D210" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D211" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D212" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D213" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D214" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D215" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D216" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D217" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3861,12 +3861,12 @@
         <v>40</v>
       </c>
       <c r="D218" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D221" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D224" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D225" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D226" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4005,12 +4005,12 @@
         <v>24</v>
       </c>
       <c r="D227" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D228" t="n">
         <v>8</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D229" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D230" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D231" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D232" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D233" t="n">
         <v>7</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D234" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D235" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D236" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D237" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D238" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D240" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D241" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D242" t="n">
         <v>5</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D243" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D244" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D245" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D246" t="n">
         <v>13</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D247" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D248" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D249" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D250" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D251" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D254" t="n">
         <v>4</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43954</v>
+        <v>43961</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D255" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43955</v>
+        <v>43962</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43956</v>
+        <v>43963</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D258" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4517,12 +4517,12 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4533,22 +4533,86 @@
         <v>11</v>
       </c>
       <c r="D260" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>12</v>
+      </c>
+      <c r="D261" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>11</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>11</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>11</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C261" t="n">
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
         <v>11</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D265" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43953</v>
+        <v>43964</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1330,15 +1330,15 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>2</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1397,12 +1397,12 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1450,15 +1450,15 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1570,15 +1570,15 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1586,15 +1586,15 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1621,12 +1621,12 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1650,15 +1650,15 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>2</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,15 +1730,15 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,15 +1746,15 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,15 +1762,15 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D88" t="n">
         <v>6</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D89" t="n">
         <v>6</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,15 +1810,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,15 +1842,15 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D93" t="n">
         <v>6</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,15 +1874,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" t="n">
         <v>5</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" t="n">
         <v>5</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" t="n">
         <v>5</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" t="n">
         <v>5</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1973,12 +1973,12 @@
         <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,15 +2018,15 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,15 +2034,15 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2117,12 +2117,12 @@
         <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,15 +2130,15 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,15 +2178,15 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,15 +2194,15 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D114" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,15 +2210,15 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,15 +2226,15 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" t="n">
         <v>6</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D119" t="n">
         <v>6</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,15 +2322,15 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,15 +2338,15 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,15 +2370,15 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43953</v>
+        <v>43963</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,15 +2386,15 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43954</v>
+        <v>43964</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,15 +2402,15 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,15 +2418,15 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D129" t="n">
         <v>2</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D130" t="n">
         <v>2</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2469,12 +2469,12 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2485,12 +2485,12 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -2506,39 +2506,39 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,15 +2594,15 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D139" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,15 +2610,15 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D140" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,15 +2626,15 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D141" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D142" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D143" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D144" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D145" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,15 +2706,15 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D146" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D147" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D148" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D149" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D150" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D151" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D152" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D153" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D154" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D155" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D160" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D161" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D162" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D163" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D164" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D165" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D166" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D167" t="n">
         <v>35</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D168" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D169" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D170" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D171" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D172" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D173" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D174" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D175" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D176" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D177" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D178" t="n">
         <v>21</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D179" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D180" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D181" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D182" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D183" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D184" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D185" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D186" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D187" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D188" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D189" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D190" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D191" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43953</v>
+        <v>43962</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D192" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43954</v>
+        <v>43963</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D193" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43955</v>
+        <v>43964</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D194" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D195" t="n">
         <v>20</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D196" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D197" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D198" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,63 +3554,63 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D199" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D211" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D212" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D213" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D214" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D215" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D216" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D217" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D218" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D219" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D220" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3909,12 +3909,12 @@
         <v>40</v>
       </c>
       <c r="D221" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D224" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D227" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D228" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D229" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4053,12 +4053,12 @@
         <v>24</v>
       </c>
       <c r="D230" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D231" t="n">
         <v>8</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D232" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D233" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D234" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D235" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D236" t="n">
         <v>7</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D237" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D238" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D239" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D240" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D241" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D243" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D244" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D245" t="n">
         <v>5</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D246" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D247" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D248" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D249" t="n">
         <v>13</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D250" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D251" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D252" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D253" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D254" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D255" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43953</v>
+        <v>43961</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D258" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43954</v>
+        <v>43962</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D259" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43955</v>
+        <v>43963</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43956</v>
+        <v>43964</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D261" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D262" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4581,12 +4581,12 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4597,22 +4597,86 @@
         <v>11</v>
       </c>
       <c r="D264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>12</v>
+      </c>
+      <c r="D265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>11</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>11</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>11</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C265" t="n">
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
         <v>11</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D269" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D269"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43953</v>
+        <v>43965</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1346,15 +1346,15 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>2</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1413,12 +1413,12 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1466,15 +1466,15 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1586,15 +1586,15 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1602,15 +1602,15 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1637,12 +1637,12 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1666,15 +1666,15 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>2</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>2</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,15 +1746,15 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,15 +1762,15 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,15 +1778,15 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D89" t="n">
         <v>6</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D90" t="n">
         <v>6</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,15 +1826,15 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,15 +1858,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D94" t="n">
         <v>6</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,15 +1890,15 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96" t="n">
         <v>5</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="n">
         <v>5</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" t="n">
         <v>5</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D100" t="n">
         <v>5</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1989,12 +1989,12 @@
         <v>12</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,15 +2034,15 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,15 +2050,15 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2133,12 +2133,12 @@
         <v>9</v>
       </c>
       <c r="D110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,15 +2146,15 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,15 +2194,15 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,15 +2210,15 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,15 +2226,15 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,15 +2242,15 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" t="n">
         <v>6</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D120" t="n">
         <v>6</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,15 +2338,15 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,15 +2354,15 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,15 +2386,15 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43953</v>
+        <v>43964</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,15 +2418,15 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43954</v>
+        <v>43965</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,15 +2434,15 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,15 +2450,15 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D131" t="n">
         <v>2</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D132" t="n">
         <v>2</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2501,12 +2501,12 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2517,12 +2517,12 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -2538,39 +2538,39 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,15 +2594,15 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,15 +2610,15 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,15 +2626,15 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D141" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D142" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D143" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D144" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D145" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,15 +2706,15 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D146" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D147" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D148" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D149" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D150" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D151" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D152" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D153" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D154" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D155" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D156" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D157" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D161" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D162" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D163" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D164" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D165" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D166" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D167" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D168" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D169" t="n">
         <v>35</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D170" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D171" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D172" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D173" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D174" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D175" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D176" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D177" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D178" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D179" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D180" t="n">
         <v>21</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D181" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D182" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D183" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D184" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D185" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D186" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D187" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D188" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D189" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D190" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D191" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D192" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D193" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D194" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43953</v>
+        <v>43963</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D195" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43954</v>
+        <v>43964</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D196" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43955</v>
+        <v>43965</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D197" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D198" t="n">
         <v>20</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D199" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D200" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D201" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,63 +3602,63 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D202" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D216" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D217" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D218" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D219" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D220" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D221" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D222" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D223" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3957,12 +3957,12 @@
         <v>40</v>
       </c>
       <c r="D224" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D227" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D230" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D231" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D232" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4101,12 +4101,12 @@
         <v>24</v>
       </c>
       <c r="D233" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D234" t="n">
         <v>8</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D235" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D236" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D237" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D238" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D239" t="n">
         <v>7</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D240" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D241" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D242" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D243" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D244" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D246" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D247" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D248" t="n">
         <v>5</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D249" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D250" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D251" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D252" t="n">
         <v>13</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D253" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D254" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D255" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D256" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D257" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D261" t="n">
         <v>1</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43953</v>
+        <v>43962</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D262" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43954</v>
+        <v>43963</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,15 +4578,15 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D263" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43955</v>
+        <v>43964</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43956</v>
+        <v>43965</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D265" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,15 +4626,15 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D266" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4645,12 +4645,12 @@
         <v>11</v>
       </c>
       <c r="D267" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4661,22 +4661,86 @@
         <v>11</v>
       </c>
       <c r="D268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>12</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>11</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>11</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>11</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C269" t="n">
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
         <v>11</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D273" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43953</v>
+        <v>43966</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1362,15 +1362,15 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43954</v>
+        <v>43967</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1378,15 +1378,15 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>2</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>2</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1429,12 +1429,12 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1442,15 +1442,15 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1482,15 +1482,15 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1498,15 +1498,15 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1602,15 +1602,15 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1637,12 +1637,12 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1650,15 +1650,15 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1666,15 +1666,15 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1685,12 +1685,12 @@
         <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1698,15 +1698,15 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>2</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>2</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,15 +1762,15 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,15 +1778,15 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,15 +1794,15 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,15 +1810,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,15 +1842,15 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,15 +1858,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,15 +1874,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,15 +1890,15 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,15 +1906,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,15 +1922,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" t="n">
         <v>5</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" t="n">
         <v>5</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D101" t="n">
         <v>5</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,15 +2002,15 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,15 +2018,15 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,15 +2050,15 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,15 +2146,15 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,15 +2178,15 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,15 +2210,15 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,15 +2226,15 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="n">
         <v>3</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D118" t="n">
         <v>6</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,15 +2274,15 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
         <v>6</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D121" t="n">
         <v>6</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D122" t="n">
         <v>6</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,15 +2354,15 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,15 +2370,15 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,15 +2386,15 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,15 +2402,15 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,15 +2418,15 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43953</v>
+        <v>43964</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,15 +2450,15 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43954</v>
+        <v>43965</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,15 +2466,15 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43955</v>
+        <v>43966</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43956</v>
+        <v>43967</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43960</v>
+        <v>43956</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,55 +2562,55 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43900</v>
+        <v>43957</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43901</v>
+        <v>43958</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43902</v>
+        <v>43959</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -2618,23 +2618,23 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43903</v>
+        <v>43960</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D144" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D145" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,15 +2706,15 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D146" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D147" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D148" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D149" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D150" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="D151" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="D152" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="D153" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="D154" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="D155" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="D156" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="D157" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="D158" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D159" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43898</v>
+        <v>43918</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43899</v>
+        <v>43919</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D162" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43931</v>
+        <v>43921</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D163" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43932</v>
+        <v>43898</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43933</v>
+        <v>43899</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="D165" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43934</v>
+        <v>43922</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="D166" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43935</v>
+        <v>43931</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D167" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43936</v>
+        <v>43932</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D168" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43937</v>
+        <v>43933</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D169" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43938</v>
+        <v>43934</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D170" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43939</v>
+        <v>43935</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D171" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43940</v>
+        <v>43936</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="D172" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43923</v>
+        <v>43937</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="D173" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D174" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43942</v>
+        <v>43939</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D175" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43943</v>
+        <v>43940</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D176" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43944</v>
+        <v>43923</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="D177" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43945</v>
+        <v>43941</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D178" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43946</v>
+        <v>43942</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D179" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43947</v>
+        <v>43943</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D180" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43948</v>
+        <v>43944</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D181" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43949</v>
+        <v>43945</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D182" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43950</v>
+        <v>43946</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D183" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43924</v>
+        <v>43947</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="D184" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43951</v>
+        <v>43948</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D185" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43925</v>
+        <v>43949</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="D186" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43926</v>
+        <v>43950</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="D187" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3381,12 +3381,12 @@
         <v>240</v>
       </c>
       <c r="D188" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43928</v>
+        <v>43951</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="D189" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="D190" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43930</v>
+        <v>43926</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="D191" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43952</v>
+        <v>43927</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
+        <v>240</v>
+      </c>
+      <c r="D192" t="n">
         <v>60</v>
-      </c>
-      <c r="D192" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43961</v>
+        <v>43928</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="D193" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43962</v>
+        <v>43929</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="D194" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43963</v>
+        <v>43930</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="D195" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43964</v>
+        <v>43952</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D196" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43965</v>
+        <v>43961</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D197" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43953</v>
+        <v>43962</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D198" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43954</v>
+        <v>43963</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D199" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43955</v>
+        <v>43964</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D200" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43956</v>
+        <v>43965</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D201" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43957</v>
+        <v>43966</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D202" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43958</v>
+        <v>43967</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D203" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43959</v>
+        <v>43953</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D204" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43960</v>
+        <v>43954</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,111 +3650,111 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D205" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43900</v>
+        <v>43955</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43901</v>
+        <v>43956</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43902</v>
+        <v>43957</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43903</v>
+        <v>43958</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43904</v>
+        <v>43959</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43905</v>
+        <v>43960</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43907</v>
+        <v>43901</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43909</v>
+        <v>43903</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43910</v>
+        <v>43904</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43911</v>
+        <v>43905</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43912</v>
+        <v>43906</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D219" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43914</v>
+        <v>43908</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D220" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D221" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43916</v>
+        <v>43910</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D222" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43917</v>
+        <v>43911</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D223" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43918</v>
+        <v>43912</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D224" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43919</v>
+        <v>43913</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D225" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D226" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43921</v>
+        <v>43915</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D227" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43899</v>
+        <v>43917</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D230" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43931</v>
+        <v>43919</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D231" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43932</v>
+        <v>43920</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D232" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43933</v>
+        <v>43921</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D233" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43934</v>
+        <v>43898</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43935</v>
+        <v>43899</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D236" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43937</v>
+        <v>43931</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D237" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43938</v>
+        <v>43932</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D238" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43939</v>
+        <v>43933</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D239" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43940</v>
+        <v>43934</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D240" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43923</v>
+        <v>43935</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D241" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43941</v>
+        <v>43936</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4245,12 +4245,12 @@
         <v>24</v>
       </c>
       <c r="D242" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D243" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D244" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43944</v>
+        <v>43939</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4293,12 +4293,12 @@
         <v>18</v>
       </c>
       <c r="D245" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43945</v>
+        <v>43940</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D246" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43946</v>
+        <v>43923</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D247" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43947</v>
+        <v>43941</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D248" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43948</v>
+        <v>43942</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D249" t="n">
         <v>6</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43949</v>
+        <v>43943</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D250" t="n">
         <v>6</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43950</v>
+        <v>43944</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D251" t="n">
         <v>5</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43924</v>
+        <v>43945</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D252" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43951</v>
+        <v>43946</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D253" t="n">
         <v>5</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43925</v>
+        <v>43947</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D254" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43926</v>
+        <v>43948</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D255" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43927</v>
+        <v>43949</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D256" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43928</v>
+        <v>43950</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D257" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43929</v>
+        <v>43924</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D258" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43930</v>
+        <v>43951</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D259" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43952</v>
+        <v>43925</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D260" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43961</v>
+        <v>43926</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43962</v>
+        <v>43927</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D262" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43963</v>
+        <v>43928</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,15 +4578,15 @@
         </is>
       </c>
       <c r="C263" t="n">
+        <v>24</v>
+      </c>
+      <c r="D263" t="n">
         <v>10</v>
-      </c>
-      <c r="D263" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43964</v>
+        <v>43929</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43965</v>
+        <v>43930</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D266" t="n">
         <v>4</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43954</v>
+        <v>43961</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D267" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43955</v>
+        <v>43962</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43956</v>
+        <v>43963</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43957</v>
+        <v>43964</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,25 +4722,153 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>7</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>12</v>
+      </c>
+      <c r="D274" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>11</v>
+      </c>
+      <c r="D275" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>11</v>
+      </c>
+      <c r="D276" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>12</v>
+      </c>
+      <c r="D277" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>11</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>11</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>11</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C273" t="n">
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
         <v>11</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D281" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1397,12 +1397,12 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>2</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1461,12 +1461,12 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1514,15 +1514,15 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1634,15 +1634,15 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1650,15 +1650,15 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1685,12 +1685,12 @@
         <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,15 +1714,15 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>2</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>2</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,15 +1794,15 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,15 +1810,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,15 +1826,15 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D92" t="n">
         <v>6</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
         <v>6</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,15 +1874,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,15 +1906,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,15 +1938,15 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" t="n">
         <v>5</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="n">
         <v>5</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D103" t="n">
         <v>5</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2037,12 +2037,12 @@
         <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,15 +2098,15 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2181,12 +2181,12 @@
         <v>9</v>
       </c>
       <c r="D113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,15 +2194,15 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,15 +2242,15 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,15 +2258,15 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D118" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,15 +2274,15 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,15 +2290,15 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121" t="n">
         <v>6</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D123" t="n">
         <v>6</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,15 +2386,15 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,15 +2402,15 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,15 +2434,15 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43953</v>
+        <v>43967</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43954</v>
+        <v>43968</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D137" t="n">
         <v>2</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D138" t="n">
         <v>2</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2597,12 +2597,12 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2613,12 +2613,12 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2634,39 +2634,39 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D145" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,15 +2706,15 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D147" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D148" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D149" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D150" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D151" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D152" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D153" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D154" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D155" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D156" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D157" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D158" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D159" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D160" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D161" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D162" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D163" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D167" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D168" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D169" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D170" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D171" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D172" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D173" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D174" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D175" t="n">
         <v>35</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D176" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D177" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D178" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D179" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D180" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D181" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D182" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D183" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D184" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D185" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D186" t="n">
         <v>21</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D187" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D188" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D189" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D190" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D191" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D192" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D193" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D194" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D195" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D196" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D197" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D198" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D199" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D200" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D201" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D202" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D203" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43953</v>
+        <v>43966</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D204" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43954</v>
+        <v>43967</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D205" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43955</v>
+        <v>43968</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D206" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D207" t="n">
         <v>20</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D208" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D209" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D210" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,63 +3746,63 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D211" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D225" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D226" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D227" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D228" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D229" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D230" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D231" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D232" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4101,12 +4101,12 @@
         <v>40</v>
       </c>
       <c r="D233" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D236" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D239" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D240" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D241" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4245,12 +4245,12 @@
         <v>24</v>
       </c>
       <c r="D242" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D243" t="n">
         <v>8</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D244" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D245" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D246" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D247" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D248" t="n">
         <v>7</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D249" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D250" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D251" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D252" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D253" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D255" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D256" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D257" t="n">
         <v>5</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D258" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D259" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D260" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D261" t="n">
         <v>13</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D262" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,15 +4578,15 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D263" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D264" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D265" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,15 +4626,15 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D266" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D270" t="n">
         <v>1</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D271" t="n">
         <v>1</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D272" t="n">
         <v>1</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D273" t="n">
         <v>1</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43953</v>
+        <v>43965</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D274" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43954</v>
+        <v>43966</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D275" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43955</v>
+        <v>43967</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43956</v>
+        <v>43968</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D278" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4837,12 +4837,12 @@
         <v>11</v>
       </c>
       <c r="D279" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4853,22 +4853,86 @@
         <v>11</v>
       </c>
       <c r="D280" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>12</v>
+      </c>
+      <c r="D281" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>11</v>
+      </c>
+      <c r="D282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>11</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>11</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C281" t="n">
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
         <v>11</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D285" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D285"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1413,12 +1413,12 @@
         <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>2</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1477,12 +1477,12 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1530,15 +1530,15 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1650,15 +1650,15 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1666,15 +1666,15 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1701,12 +1701,12 @@
         <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,15 +1730,15 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>2</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>2</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,15 +1810,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,15 +1826,15 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,15 +1842,15 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D93" t="n">
         <v>6</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D94" t="n">
         <v>6</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,15 +1890,15 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,15 +1922,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D98" t="n">
         <v>6</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,15 +1954,15 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" t="n">
         <v>5</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" t="n">
         <v>5</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" t="n">
         <v>5</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104" t="n">
         <v>5</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2053,12 +2053,12 @@
         <v>12</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,15 +2098,15 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D108" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,15 +2114,15 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2197,12 +2197,12 @@
         <v>9</v>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,15 +2210,15 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
         <v>2</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,15 +2258,15 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,15 +2274,15 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,15 +2290,15 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D120" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,15 +2306,15 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" t="n">
         <v>6</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D124" t="n">
         <v>6</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,15 +2402,15 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,15 +2418,15 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,15 +2450,15 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43954</v>
+        <v>43969</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D139" t="n">
         <v>2</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D140" t="n">
         <v>2</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2629,12 +2629,12 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2645,12 +2645,12 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2666,39 +2666,39 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,15 +2706,15 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D147" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D149" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D150" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D151" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D152" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D153" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D154" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D155" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D156" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D157" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D158" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D159" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D160" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D161" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D162" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D163" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D164" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D165" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D170" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D171" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D172" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D173" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D174" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D175" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D176" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D177" t="n">
         <v>35</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D178" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D179" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D180" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D181" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D182" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D183" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D184" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D185" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D186" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D187" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D188" t="n">
         <v>21</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D189" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D190" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D191" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D192" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D193" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D194" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D195" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D196" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D197" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D198" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D199" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D200" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D201" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D202" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D203" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D204" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D205" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D206" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43953</v>
+        <v>43967</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D207" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43954</v>
+        <v>43968</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D208" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43955</v>
+        <v>43969</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D209" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D210" t="n">
         <v>20</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D211" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D212" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D213" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,63 +3794,63 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D214" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D228" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D229" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D230" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D231" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D232" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D233" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D234" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D235" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4149,12 +4149,12 @@
         <v>40</v>
       </c>
       <c r="D236" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D239" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D242" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D243" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D244" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4293,12 +4293,12 @@
         <v>24</v>
       </c>
       <c r="D245" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D246" t="n">
         <v>8</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D247" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D248" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D249" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D250" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D251" t="n">
         <v>7</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D252" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D253" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D254" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D255" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D256" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D258" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D259" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D260" t="n">
         <v>5</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D261" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D262" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,15 +4578,15 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D263" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D264" t="n">
         <v>13</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D265" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,15 +4626,15 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D266" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D267" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D268" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D269" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,15 +4722,15 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D273" t="n">
         <v>1</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D274" t="n">
         <v>1</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D275" t="n">
         <v>1</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D276" t="n">
         <v>1</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D277" t="n">
         <v>1</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43953</v>
+        <v>43966</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D278" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43954</v>
+        <v>43967</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,15 +4834,15 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D279" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43955</v>
+        <v>43968</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43956</v>
+        <v>43969</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4866,15 +4866,15 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D281" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,15 +4882,15 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D282" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4901,12 +4901,12 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4917,22 +4917,86 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>12</v>
+      </c>
+      <c r="D285" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>11</v>
+      </c>
+      <c r="D286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>11</v>
+      </c>
+      <c r="D287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>11</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C285" t="n">
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
         <v>11</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D289" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1429,12 +1429,12 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>2</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1493,12 +1493,12 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1546,15 +1546,15 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1666,15 +1666,15 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1682,15 +1682,15 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1717,12 +1717,12 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,15 +1746,15 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>2</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>2</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,15 +1826,15 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,15 +1842,15 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,15 +1858,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D94" t="n">
         <v>6</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D95" t="n">
         <v>6</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,15 +1906,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,15 +1938,15 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D99" t="n">
         <v>6</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,15 +1970,15 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" t="n">
         <v>5</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" t="n">
         <v>5</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D105" t="n">
         <v>5</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2069,12 +2069,12 @@
         <v>12</v>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,15 +2114,15 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,15 +2130,15 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2213,12 +2213,12 @@
         <v>9</v>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,15 +2226,15 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,15 +2274,15 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,15 +2290,15 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,15 +2306,15 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,15 +2322,15 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" t="n">
         <v>6</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D125" t="n">
         <v>6</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,15 +2418,15 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,15 +2434,15 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,15 +2466,15 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43954</v>
+        <v>43970</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,15 +2594,15 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,15 +2610,15 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D141" t="n">
         <v>2</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D142" t="n">
         <v>2</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2661,12 +2661,12 @@
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2677,12 +2677,12 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -2698,39 +2698,39 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D149" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D151" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D152" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D153" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D154" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D155" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D156" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D157" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D158" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D159" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D160" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D161" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D162" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D163" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D164" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D165" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D166" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D167" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D171" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D172" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D173" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D174" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D175" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D176" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D177" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D178" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D179" t="n">
         <v>35</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D180" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D181" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D182" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D183" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D184" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D185" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D186" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D187" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D188" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D189" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D190" t="n">
         <v>21</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D191" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D192" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D193" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D194" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D195" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D196" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D197" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D198" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D199" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D200" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D201" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D202" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D203" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D204" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D205" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D206" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D207" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D208" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D209" t="n">
         <v>10</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D210" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43954</v>
+        <v>43969</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D211" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43955</v>
+        <v>43970</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D212" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D213" t="n">
         <v>20</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D214" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D215" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D216" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,63 +3842,63 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D217" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D229" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D231" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D232" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D233" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D234" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D235" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D236" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D237" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D238" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4197,12 +4197,12 @@
         <v>40</v>
       </c>
       <c r="D239" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D242" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D245" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D246" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D247" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4341,12 +4341,12 @@
         <v>24</v>
       </c>
       <c r="D248" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D249" t="n">
         <v>8</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D250" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D251" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D252" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D253" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D254" t="n">
         <v>7</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D255" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D256" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D257" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D258" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D259" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D261" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D262" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D263" t="n">
         <v>5</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D264" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D265" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,15 +4626,15 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D266" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D267" t="n">
         <v>13</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D268" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D269" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D270" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D271" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,15 +4722,15 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D272" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D276" t="n">
         <v>1</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D277" t="n">
         <v>1</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D278" t="n">
         <v>1</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D279" t="n">
         <v>1</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D280" t="n">
         <v>1</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43953</v>
+        <v>43967</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,15 +4882,15 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D282" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43954</v>
+        <v>43968</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,15 +4898,15 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D283" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43955</v>
+        <v>43969</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4914,15 +4914,15 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D284" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43956</v>
+        <v>43970</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,15 +4930,15 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D286" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4965,12 +4965,12 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4981,22 +4981,86 @@
         <v>11</v>
       </c>
       <c r="D288" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>12</v>
+      </c>
+      <c r="D289" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>11</v>
+      </c>
+      <c r="D290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>11</v>
+      </c>
+      <c r="D291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>11</v>
+      </c>
+      <c r="D292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C289" t="n">
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
         <v>11</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D293" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D293"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43954</v>
+        <v>43971</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1461,12 +1461,12 @@
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>2</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1509,12 +1509,12 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1562,15 +1562,15 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1682,15 +1682,15 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1698,15 +1698,15 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1733,12 +1733,12 @@
         <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,15 +1762,15 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>2</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>2</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,15 +1842,15 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,15 +1858,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,15 +1874,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D95" t="n">
         <v>6</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D96" t="n">
         <v>6</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,15 +1922,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,15 +1954,15 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,15 +1986,15 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" t="n">
         <v>5</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" t="n">
         <v>5</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2085,12 +2085,12 @@
         <v>12</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,15 +2130,15 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,15 +2146,15 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2229,12 +2229,12 @@
         <v>9</v>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,15 +2242,15 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,15 +2290,15 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,15 +2306,15 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D121" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,15 +2322,15 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,15 +2338,15 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="n">
         <v>6</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D126" t="n">
         <v>6</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,15 +2434,15 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,15 +2450,15 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,15 +2610,15 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,15 +2626,15 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43955</v>
+        <v>43971</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D143" t="n">
         <v>2</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D144" t="n">
         <v>2</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2693,12 +2693,12 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2709,12 +2709,12 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -2730,39 +2730,39 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D152" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D153" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D154" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D155" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D156" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D157" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D158" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D159" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D160" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D161" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D162" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D163" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D164" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D165" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D166" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D167" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D168" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D169" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D173" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D174" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D175" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D176" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D177" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D178" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D179" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D180" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D181" t="n">
         <v>35</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D182" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D183" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D184" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D185" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D186" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D187" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D188" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D189" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D190" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D191" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D192" t="n">
         <v>21</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D193" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D194" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D195" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D196" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D197" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D198" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D199" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D200" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D201" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D202" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D203" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D204" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D205" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D206" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D207" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D208" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D209" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D210" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D211" t="n">
         <v>10</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D212" t="n">
         <v>10</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D213" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43954</v>
+        <v>43970</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D214" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D215" t="n">
         <v>20</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43956</v>
+        <v>43971</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D216" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D217" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D218" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D219" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,63 +3890,63 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D220" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D233" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D234" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D235" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D236" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D237" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D238" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D239" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D240" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D241" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4245,12 +4245,12 @@
         <v>40</v>
       </c>
       <c r="D242" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D245" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D248" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D249" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D250" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4389,12 +4389,12 @@
         <v>24</v>
       </c>
       <c r="D251" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D252" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D253" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D254" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D255" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D256" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D257" t="n">
         <v>7</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D258" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D259" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D260" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D261" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D262" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D264" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D265" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D266" t="n">
         <v>5</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D267" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D268" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D269" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D270" t="n">
         <v>13</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D271" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,15 +4722,15 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D272" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D273" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D274" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D275" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D276" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D277" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D279" t="n">
         <v>1</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D280" t="n">
         <v>1</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D281" t="n">
         <v>1</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D282" t="n">
         <v>1</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D283" t="n">
         <v>1</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D285" t="n">
         <v>1</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D286" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43954</v>
+        <v>43969</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4962,15 +4962,15 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D287" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43955</v>
+        <v>43970</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,15 +4978,15 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4997,12 +4997,12 @@
         <v>12</v>
       </c>
       <c r="D289" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43957</v>
+        <v>43971</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5010,15 +5010,15 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5029,12 +5029,12 @@
         <v>11</v>
       </c>
       <c r="D291" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5045,22 +5045,86 @@
         <v>11</v>
       </c>
       <c r="D292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>12</v>
+      </c>
+      <c r="D293" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>11</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>11</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>11</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C293" t="n">
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
         <v>11</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D297" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43954</v>
+        <v>43972</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1477,12 +1477,12 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>2</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1525,12 +1525,12 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1578,15 +1578,15 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1698,15 +1698,15 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,15 +1714,15 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1749,12 +1749,12 @@
         <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,15 +1778,15 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>2</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>2</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,15 +1858,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,15 +1874,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,15 +1890,15 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D96" t="n">
         <v>6</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,15 +1938,15 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,15 +1970,15 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,15 +2002,15 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" t="n">
         <v>5</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="n">
         <v>5</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D107" t="n">
         <v>5</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2101,12 +2101,12 @@
         <v>12</v>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,15 +2146,15 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,15 +2162,15 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
         <v>2</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2245,12 +2245,12 @@
         <v>9</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,15 +2258,15 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,15 +2306,15 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,15 +2322,15 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D122" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,15 +2338,15 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,15 +2354,15 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" t="n">
         <v>6</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D127" t="n">
         <v>6</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,15 +2450,15 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,15 +2466,15 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,15 +2626,15 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43971</v>
+        <v>43953</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43954</v>
+        <v>43971</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43955</v>
+        <v>43972</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D145" t="n">
         <v>2</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D146" t="n">
         <v>2</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2725,12 +2725,12 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2741,12 +2741,12 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -2762,39 +2762,39 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D153" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D155" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D156" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D157" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D158" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D159" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D160" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D161" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D162" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D163" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D164" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D165" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D166" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D167" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D168" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D169" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D170" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D171" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D175" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D176" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D177" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D178" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D179" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D180" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D181" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D182" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D183" t="n">
         <v>35</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D184" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D185" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D186" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D187" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D188" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D189" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D190" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D191" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D192" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D193" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D194" t="n">
         <v>21</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D195" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D196" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D197" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D198" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D199" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D200" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D201" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D202" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D203" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D204" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D205" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D206" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D207" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D208" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D209" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D210" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D211" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D212" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D213" t="n">
         <v>10</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D214" t="n">
         <v>10</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D215" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D216" t="n">
         <v>10</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D217" t="n">
         <v>20</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43955</v>
+        <v>43971</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D218" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43956</v>
+        <v>43972</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D219" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D220" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D221" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D222" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,63 +3938,63 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D223" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D237" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D238" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D239" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D240" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D241" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D242" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D243" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D244" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4293,12 +4293,12 @@
         <v>40</v>
       </c>
       <c r="D245" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D248" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D251" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D252" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D253" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4437,12 +4437,12 @@
         <v>24</v>
       </c>
       <c r="D254" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D255" t="n">
         <v>8</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D256" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D257" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D258" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D259" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D260" t="n">
         <v>7</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D261" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D262" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,15 +4578,15 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D263" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D264" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D265" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D267" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D268" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D269" t="n">
         <v>5</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D270" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D271" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,15 +4722,15 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D272" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D273" t="n">
         <v>13</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D274" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D275" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D276" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D277" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D278" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,15 +4834,15 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D279" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4866,15 +4866,15 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D282" t="n">
         <v>1</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D283" t="n">
         <v>1</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D284" t="n">
         <v>1</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D285" t="n">
         <v>1</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D286" t="n">
         <v>1</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D288" t="n">
         <v>1</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,15 +4994,15 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D289" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5010,15 +5010,15 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43954</v>
+        <v>43970</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,15 +5026,15 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,15 +5042,15 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D292" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43956</v>
+        <v>43971</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5058,15 +5058,15 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43957</v>
+        <v>43972</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,15 +5074,15 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5093,12 +5093,12 @@
         <v>11</v>
       </c>
       <c r="D295" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5109,22 +5109,86 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>12</v>
+      </c>
+      <c r="D297" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>11</v>
+      </c>
+      <c r="D298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>11</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>11</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C297" t="n">
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
         <v>11</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D301" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43954</v>
+        <v>43973</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1493,12 +1493,12 @@
         <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>2</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1541,12 +1541,12 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1594,15 +1594,15 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,15 +1714,15 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,15 +1730,15 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1765,12 +1765,12 @@
         <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,15 +1794,15 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>2</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,15 +1874,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,15 +1890,15 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,15 +1906,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D98" t="n">
         <v>6</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,15 +1954,15 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,15 +1986,15 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D102" t="n">
         <v>6</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,15 +2018,15 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" t="n">
         <v>5</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="n">
         <v>5</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" t="n">
         <v>5</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D108" t="n">
         <v>5</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2117,12 +2117,12 @@
         <v>12</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,15 +2162,15 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,15 +2178,15 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2261,12 +2261,12 @@
         <v>9</v>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,15 +2274,15 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D120" t="n">
         <v>2</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,15 +2322,15 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,15 +2338,15 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D123" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,15 +2354,15 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,15 +2370,15 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
         <v>6</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D128" t="n">
         <v>6</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,15 +2466,15 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43971</v>
+        <v>43953</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43954</v>
+        <v>43972</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43955</v>
+        <v>43973</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,15 +2706,15 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D147" t="n">
         <v>2</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D148" t="n">
         <v>2</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2757,12 +2757,12 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2773,12 +2773,12 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -2794,39 +2794,39 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D155" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D157" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D158" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D159" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D160" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D161" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D162" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D163" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D164" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D165" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D166" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D167" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D168" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D169" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D170" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D171" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D172" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D173" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D178" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D179" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D180" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D181" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D182" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D183" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D184" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D185" t="n">
         <v>35</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D186" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D187" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D188" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D189" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D190" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D191" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D192" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D193" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D194" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D195" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D196" t="n">
         <v>21</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D197" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D198" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D199" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D200" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D201" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D202" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D203" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D204" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D205" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D206" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D207" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D208" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D209" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D210" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D211" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D212" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D213" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D214" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D215" t="n">
         <v>10</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D216" t="n">
         <v>10</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D217" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D218" t="n">
         <v>10</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D219" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43954</v>
+        <v>43971</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D220" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43955</v>
+        <v>43972</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D221" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43956</v>
+        <v>43973</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D222" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D223" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D224" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D225" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,63 +3986,63 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D226" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D238" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D239" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D240" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D241" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D242" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D243" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D244" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D245" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D246" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D247" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4341,12 +4341,12 @@
         <v>40</v>
       </c>
       <c r="D248" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D251" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D254" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D255" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D256" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4485,12 +4485,12 @@
         <v>24</v>
       </c>
       <c r="D257" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D258" t="n">
         <v>8</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D259" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D260" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D261" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D262" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D263" t="n">
         <v>7</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D264" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D265" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,15 +4626,15 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D266" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D267" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D268" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D270" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D271" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D272" t="n">
         <v>5</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D273" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D274" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D275" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D276" t="n">
         <v>13</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D277" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D278" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,15 +4834,15 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D279" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D280" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4866,15 +4866,15 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D281" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,15 +4882,15 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,15 +4898,15 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D283" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4914,15 +4914,15 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D285" t="n">
         <v>1</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D286" t="n">
         <v>1</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D287" t="n">
         <v>1</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D288" t="n">
         <v>1</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D289" t="n">
         <v>1</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D291" t="n">
         <v>1</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,15 +5042,15 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D292" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5058,15 +5058,15 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,15 +5074,15 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D295" t="n">
         <v>4</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43955</v>
+        <v>43971</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5106,15 +5106,15 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43956</v>
+        <v>43972</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5122,15 +5122,15 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43957</v>
+        <v>43973</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5138,15 +5138,15 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5157,12 +5157,12 @@
         <v>11</v>
       </c>
       <c r="D299" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5173,22 +5173,86 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>12</v>
+      </c>
+      <c r="D301" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>11</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>11</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>11</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C301" t="n">
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
         <v>11</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D305" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43954</v>
+        <v>43974</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1506,15 +1506,15 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>2</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1557,12 +1557,12 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1610,15 +1610,15 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,15 +1730,15 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,15 +1746,15 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1781,12 +1781,12 @@
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,15 +1810,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,15 +1890,15 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,15 +1906,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,15 +1922,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D98" t="n">
         <v>6</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D99" t="n">
         <v>6</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,15 +1970,15 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,15 +2002,15 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D103" t="n">
         <v>6</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,15 +2034,15 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" t="n">
         <v>5</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" t="n">
         <v>5</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" t="n">
         <v>5</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2133,12 +2133,12 @@
         <v>12</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,15 +2178,15 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D113" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,15 +2194,15 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
         <v>2</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2277,12 +2277,12 @@
         <v>9</v>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,15 +2290,15 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D121" t="n">
         <v>2</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,15 +2338,15 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,15 +2354,15 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D124" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,15 +2370,15 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,15 +2386,15 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" t="n">
         <v>6</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D129" t="n">
         <v>6</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43971</v>
+        <v>43953</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43954</v>
+        <v>43973</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43955</v>
+        <v>43974</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D149" t="n">
         <v>2</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D150" t="n">
         <v>2</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2789,12 +2789,12 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2805,12 +2805,12 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -2826,39 +2826,39 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D157" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D159" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D160" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D161" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D162" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D163" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D164" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D165" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D166" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D167" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D168" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D169" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D170" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D171" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D172" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D173" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D174" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D175" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D179" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D180" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D181" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D182" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D183" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D184" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D185" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D186" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D187" t="n">
         <v>35</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D188" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D189" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D190" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D191" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D192" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D193" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D194" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D195" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D196" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D197" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D198" t="n">
         <v>21</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D199" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D200" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D201" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D202" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D203" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D204" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D205" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D206" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D207" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D208" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D209" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D210" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D211" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D212" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D213" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D214" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D215" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D216" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D217" t="n">
         <v>10</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D218" t="n">
         <v>10</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D219" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D220" t="n">
         <v>10</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D221" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D222" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43954</v>
+        <v>43972</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D223" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43955</v>
+        <v>43973</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D224" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43956</v>
+        <v>43974</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D225" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D226" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D227" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D228" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,63 +4034,63 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D229" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D241" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D243" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D244" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D245" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D246" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D247" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D248" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D249" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D250" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4389,12 +4389,12 @@
         <v>40</v>
       </c>
       <c r="D251" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D254" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D257" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D258" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D259" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4533,12 +4533,12 @@
         <v>24</v>
       </c>
       <c r="D260" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D261" t="n">
         <v>8</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D262" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,15 +4578,15 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D263" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D264" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D265" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D266" t="n">
         <v>7</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D267" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D268" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D269" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D270" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D271" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D273" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D274" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D275" t="n">
         <v>5</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D276" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D277" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D278" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D279" t="n">
         <v>13</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D280" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4866,15 +4866,15 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D281" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,15 +4882,15 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D282" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,15 +4898,15 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D283" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4914,15 +4914,15 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D284" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,15 +4930,15 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D285" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4962,15 +4962,15 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D288" t="n">
         <v>1</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D289" t="n">
         <v>1</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D290" t="n">
         <v>1</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D291" t="n">
         <v>1</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D292" t="n">
         <v>1</v>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D294" t="n">
         <v>1</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5090,15 +5090,15 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D295" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5106,15 +5106,15 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5122,15 +5122,15 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43973</v>
+        <v>43953</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5138,15 +5138,15 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43954</v>
+        <v>43971</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5154,15 +5154,15 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D299" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43955</v>
+        <v>43972</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5170,15 +5170,15 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43956</v>
+        <v>43973</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -5186,15 +5186,15 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43957</v>
+        <v>43974</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -5202,15 +5202,15 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -5221,12 +5221,12 @@
         <v>11</v>
       </c>
       <c r="D303" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -5237,22 +5237,86 @@
         <v>11</v>
       </c>
       <c r="D304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>12</v>
+      </c>
+      <c r="D305" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>11</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>11</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>11</v>
+      </c>
+      <c r="D308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C305" t="n">
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
         <v>11</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D309" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D309"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43954</v>
+        <v>43975</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1522,15 +1522,15 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1573,12 +1573,12 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1626,15 +1626,15 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1746,15 +1746,15 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,15 +1762,15 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1797,12 +1797,12 @@
         <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,15 +1826,15 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,15 +1906,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,15 +1922,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,15 +1938,15 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D99" t="n">
         <v>6</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,15 +1986,15 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,15 +2018,15 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D104" t="n">
         <v>6</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,15 +2050,15 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" t="n">
         <v>5</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109" t="n">
         <v>5</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110" t="n">
         <v>5</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2149,12 +2149,12 @@
         <v>12</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,15 +2194,15 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D114" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,15 +2210,15 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2293,12 +2293,12 @@
         <v>9</v>
       </c>
       <c r="D120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,15 +2306,15 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,15 +2354,15 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,15 +2370,15 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,15 +2386,15 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,15 +2402,15 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" t="n">
         <v>6</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D130" t="n">
         <v>6</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43971</v>
+        <v>43953</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43954</v>
+        <v>43974</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43955</v>
+        <v>43975</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D151" t="n">
         <v>2</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D152" t="n">
         <v>2</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2821,12 +2821,12 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2837,12 +2837,12 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -2858,39 +2858,39 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D159" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D160" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D161" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D163" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D164" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D165" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D166" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D167" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D168" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D169" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D170" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D171" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D172" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D173" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D174" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D175" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D176" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D177" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D182" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D183" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D184" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D185" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D186" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D187" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D188" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D189" t="n">
         <v>35</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D190" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D191" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D192" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D193" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D194" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D195" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D196" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D197" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D198" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D199" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D200" t="n">
         <v>21</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D201" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D202" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D203" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D204" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D205" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D206" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D207" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D208" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D209" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D210" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D211" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D212" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D213" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D214" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D215" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D216" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D217" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D218" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D219" t="n">
         <v>10</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D220" t="n">
         <v>10</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D221" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D222" t="n">
         <v>10</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D223" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D224" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D225" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43954</v>
+        <v>43973</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D226" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43955</v>
+        <v>43974</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D227" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43956</v>
+        <v>43975</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D228" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D229" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D230" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D231" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,63 +4082,63 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D232" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D244" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D245" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D246" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D247" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D248" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D249" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D250" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D251" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D252" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D253" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4437,12 +4437,12 @@
         <v>40</v>
       </c>
       <c r="D254" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D257" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D260" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D261" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D262" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4581,12 +4581,12 @@
         <v>24</v>
       </c>
       <c r="D263" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D264" t="n">
         <v>8</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D265" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,15 +4626,15 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D266" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D267" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D268" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D269" t="n">
         <v>7</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D270" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D271" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,15 +4722,15 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D272" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D273" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D274" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D276" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D277" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D278" t="n">
         <v>5</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,15 +4834,15 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D279" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D280" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4866,15 +4866,15 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D281" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D282" t="n">
         <v>13</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,15 +4898,15 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D283" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4914,15 +4914,15 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D284" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,15 +4930,15 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D285" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D286" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4962,15 +4962,15 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D287" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,15 +4978,15 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,15 +4994,15 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5010,15 +5010,15 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D291" t="n">
         <v>1</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D292" t="n">
         <v>1</v>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D293" t="n">
         <v>1</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D294" t="n">
         <v>1</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D295" t="n">
         <v>1</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D297" t="n">
         <v>1</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5138,15 +5138,15 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D298" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5154,15 +5154,15 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5170,15 +5170,15 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43973</v>
+        <v>43953</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -5186,15 +5186,15 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D301" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D302" t="n">
         <v>0</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43954</v>
+        <v>43972</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -5218,15 +5218,15 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D303" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43955</v>
+        <v>43973</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -5234,15 +5234,15 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43956</v>
+        <v>43974</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5250,15 +5250,15 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43957</v>
+        <v>43975</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5266,15 +5266,15 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5285,12 +5285,12 @@
         <v>11</v>
       </c>
       <c r="D307" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5301,22 +5301,86 @@
         <v>11</v>
       </c>
       <c r="D308" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>12</v>
+      </c>
+      <c r="D309" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>11</v>
+      </c>
+      <c r="D310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>11</v>
+      </c>
+      <c r="D311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>11</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C309" t="n">
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
         <v>11</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D313" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43954</v>
+        <v>43976</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1538,15 +1538,15 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43955</v>
+        <v>43977</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1554,15 +1554,15 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>2</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1589,12 +1589,12 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1602,15 +1602,15 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1642,15 +1642,15 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1658,15 +1658,15 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1762,15 +1762,15 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1797,12 +1797,12 @@
         <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,15 +1810,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,15 +1826,15 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1845,12 +1845,12 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,15 +1858,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,15 +1922,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,15 +1938,15 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,15 +1954,15 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,15 +1970,15 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,15 +2002,15 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,15 +2018,15 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,15 +2034,15 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,15 +2050,15 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,15 +2066,15 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D107" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D109" t="n">
         <v>5</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D110" t="n">
         <v>5</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D111" t="n">
         <v>5</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,15 +2162,15 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,15 +2178,15 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,15 +2210,15 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,15 +2242,15 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="n">
         <v>2</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,15 +2306,15 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,15 +2338,15 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,15 +2370,15 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,15 +2386,15 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="n">
         <v>3</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D128" t="n">
         <v>6</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,15 +2434,15 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D129" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" t="n">
         <v>6</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D131" t="n">
         <v>6</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D132" t="n">
         <v>6</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
+        <v>8</v>
+      </c>
+      <c r="D147" t="n">
         <v>3</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43954</v>
+        <v>43974</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43955</v>
+        <v>43975</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43956</v>
+        <v>43976</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43957</v>
+        <v>43977</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43960</v>
+        <v>43956</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,55 +2882,55 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43900</v>
+        <v>43957</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43901</v>
+        <v>43958</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43902</v>
+        <v>43959</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -2938,23 +2938,23 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43903</v>
+        <v>43960</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D161" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D163" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D164" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D165" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D166" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D167" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D168" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D169" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D170" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="D171" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="D172" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="D173" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="D174" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="D175" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="D176" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="D177" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="D178" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D179" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43898</v>
+        <v>43918</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43899</v>
+        <v>43919</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D182" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43931</v>
+        <v>43921</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D183" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43932</v>
+        <v>43898</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43933</v>
+        <v>43899</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43934</v>
+        <v>43922</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="D186" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43935</v>
+        <v>43931</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D187" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43936</v>
+        <v>43932</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D188" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43937</v>
+        <v>43933</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D189" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43938</v>
+        <v>43934</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D190" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43939</v>
+        <v>43935</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D191" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43940</v>
+        <v>43936</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="D192" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43923</v>
+        <v>43937</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="D193" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D194" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43942</v>
+        <v>43939</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D195" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43943</v>
+        <v>43940</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D196" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43944</v>
+        <v>43923</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="D197" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43945</v>
+        <v>43941</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D198" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43946</v>
+        <v>43942</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D199" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43947</v>
+        <v>43943</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D200" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43948</v>
+        <v>43944</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D201" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43949</v>
+        <v>43945</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D202" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43950</v>
+        <v>43946</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D203" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43924</v>
+        <v>43947</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="D204" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43951</v>
+        <v>43948</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D205" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43925</v>
+        <v>43949</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="D206" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43926</v>
+        <v>43950</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="D207" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3701,12 +3701,12 @@
         <v>240</v>
       </c>
       <c r="D208" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43928</v>
+        <v>43951</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="D209" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="D210" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43930</v>
+        <v>43926</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="D211" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43952</v>
+        <v>43927</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
+        <v>240</v>
+      </c>
+      <c r="D212" t="n">
         <v>60</v>
-      </c>
-      <c r="D212" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43961</v>
+        <v>43928</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="D213" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43962</v>
+        <v>43929</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="D214" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43963</v>
+        <v>43930</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="D215" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43964</v>
+        <v>43952</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D216" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43965</v>
+        <v>43961</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D217" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43966</v>
+        <v>43962</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D218" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43967</v>
+        <v>43963</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D219" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43968</v>
+        <v>43964</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D220" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43969</v>
+        <v>43965</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D221" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43970</v>
+        <v>43966</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D222" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43953</v>
+        <v>43967</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D223" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43971</v>
+        <v>43968</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D224" t="n">
         <v>10</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43972</v>
+        <v>43969</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D225" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43973</v>
+        <v>43970</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3989,12 +3989,12 @@
         <v>35</v>
       </c>
       <c r="D226" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43974</v>
+        <v>43953</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D227" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43975</v>
+        <v>43971</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D228" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43954</v>
+        <v>43972</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D229" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43955</v>
+        <v>43973</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D230" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43956</v>
+        <v>43974</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D231" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43957</v>
+        <v>43975</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D232" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43958</v>
+        <v>43976</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D233" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43959</v>
+        <v>43977</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D234" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43960</v>
+        <v>43954</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,111 +4130,111 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D235" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43900</v>
+        <v>43955</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43901</v>
+        <v>43956</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43902</v>
+        <v>43957</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43903</v>
+        <v>43958</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43904</v>
+        <v>43959</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43905</v>
+        <v>43960</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D242" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43907</v>
+        <v>43901</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43909</v>
+        <v>43903</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43910</v>
+        <v>43904</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43911</v>
+        <v>43905</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43912</v>
+        <v>43906</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D249" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43914</v>
+        <v>43908</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D250" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D251" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43916</v>
+        <v>43910</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D252" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43917</v>
+        <v>43911</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D253" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43918</v>
+        <v>43912</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D254" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43919</v>
+        <v>43913</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D255" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D256" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43921</v>
+        <v>43915</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D257" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43899</v>
+        <v>43917</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D260" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43931</v>
+        <v>43919</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D261" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43932</v>
+        <v>43920</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D262" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43933</v>
+        <v>43921</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,15 +4578,15 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D263" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43934</v>
+        <v>43898</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D264" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43935</v>
+        <v>43899</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D265" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,15 +4626,15 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D266" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43937</v>
+        <v>43931</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D267" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43938</v>
+        <v>43932</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D268" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43939</v>
+        <v>43933</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D269" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43940</v>
+        <v>43934</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D270" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43923</v>
+        <v>43935</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D271" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43941</v>
+        <v>43936</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4725,12 +4725,12 @@
         <v>24</v>
       </c>
       <c r="D272" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D273" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D274" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43944</v>
+        <v>43939</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4773,12 +4773,12 @@
         <v>18</v>
       </c>
       <c r="D275" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43945</v>
+        <v>43940</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D276" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43946</v>
+        <v>43923</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D277" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43947</v>
+        <v>43941</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D278" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43948</v>
+        <v>43942</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D279" t="n">
         <v>6</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43949</v>
+        <v>43943</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D280" t="n">
         <v>6</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43950</v>
+        <v>43944</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D281" t="n">
         <v>5</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43924</v>
+        <v>43945</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,15 +4882,15 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D282" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43951</v>
+        <v>43946</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D283" t="n">
         <v>5</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43925</v>
+        <v>43947</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4914,15 +4914,15 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D284" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43926</v>
+        <v>43948</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,15 +4930,15 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D285" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43927</v>
+        <v>43949</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D286" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43928</v>
+        <v>43950</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4962,15 +4962,15 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D287" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43929</v>
+        <v>43924</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,15 +4978,15 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D288" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43930</v>
+        <v>43951</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,15 +4994,15 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D289" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43952</v>
+        <v>43925</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5010,15 +5010,15 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D290" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43961</v>
+        <v>43926</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,15 +5026,15 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43962</v>
+        <v>43927</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,15 +5042,15 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43963</v>
+        <v>43928</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5058,15 +5058,15 @@
         </is>
       </c>
       <c r="C293" t="n">
+        <v>24</v>
+      </c>
+      <c r="D293" t="n">
         <v>10</v>
-      </c>
-      <c r="D293" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43964</v>
+        <v>43929</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,15 +5074,15 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D294" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43965</v>
+        <v>43930</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5090,15 +5090,15 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43966</v>
+        <v>43952</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5106,15 +5106,15 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43967</v>
+        <v>43961</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D297" t="n">
         <v>1</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43968</v>
+        <v>43962</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D298" t="n">
         <v>1</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43969</v>
+        <v>43963</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D299" t="n">
         <v>1</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43970</v>
+        <v>43964</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D300" t="n">
         <v>1</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43953</v>
+        <v>43965</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -5186,15 +5186,15 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D301" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43971</v>
+        <v>43966</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -5202,15 +5202,15 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43972</v>
+        <v>43967</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -5218,15 +5218,15 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43973</v>
+        <v>43968</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -5234,15 +5234,15 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43974</v>
+        <v>43969</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5250,15 +5250,15 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43975</v>
+        <v>43970</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5266,15 +5266,15 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D307" t="n">
         <v>4</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43955</v>
+        <v>43971</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5298,15 +5298,15 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>43956</v>
+        <v>43972</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -5314,15 +5314,15 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>43957</v>
+        <v>43973</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -5330,15 +5330,15 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>43958</v>
+        <v>43974</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -5346,15 +5346,15 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>43959</v>
+        <v>43975</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -5362,25 +5362,153 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>2</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>2</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>11</v>
+      </c>
+      <c r="D315" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>11</v>
+      </c>
+      <c r="D316" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>12</v>
+      </c>
+      <c r="D317" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>11</v>
+      </c>
+      <c r="D318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>11</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>11</v>
+      </c>
+      <c r="D320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C313" t="n">
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
         <v>11</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D321" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:D325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43954</v>
+        <v>43978</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1570,15 +1570,15 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>2</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1621,12 +1621,12 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1674,15 +1674,15 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1794,15 +1794,15 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,15 +1810,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1845,12 +1845,12 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,15 +1874,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,15 +1954,15 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,15 +1970,15 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,15 +1986,15 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D102" t="n">
         <v>6</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D103" t="n">
         <v>6</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,15 +2034,15 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,15 +2066,15 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D107" t="n">
         <v>6</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,15 +2098,15 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109" t="n">
         <v>5</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D110" t="n">
         <v>5</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D112" t="n">
         <v>5</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D113" t="n">
         <v>5</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2197,12 +2197,12 @@
         <v>12</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
         <v>2</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,15 +2242,15 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,15 +2258,15 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D120" t="n">
         <v>2</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2341,12 +2341,12 @@
         <v>9</v>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,15 +2354,15 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D125" t="n">
         <v>2</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,15 +2402,15 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,15 +2418,15 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D128" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,15 +2434,15 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,15 +2450,15 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" t="n">
         <v>6</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D133" t="n">
         <v>6</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,15 +2594,15 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43971</v>
+        <v>43953</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43954</v>
+        <v>43977</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43955</v>
+        <v>43978</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D157" t="n">
         <v>2</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D158" t="n">
         <v>2</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2917,12 +2917,12 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2933,12 +2933,12 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -2954,39 +2954,39 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D165" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D166" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D167" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D168" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D169" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D170" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D171" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D172" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D173" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D174" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D175" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D176" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D177" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D178" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D179" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D180" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D181" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D182" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D183" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D187" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D188" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D189" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D190" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D191" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D192" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D193" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D194" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D195" t="n">
         <v>35</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D196" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D197" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D198" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D199" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D200" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D201" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D202" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D203" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D204" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D205" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D206" t="n">
         <v>21</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D207" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D208" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D209" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D210" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D211" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D212" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D213" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D214" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D215" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D216" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D217" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D218" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D219" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D220" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D221" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D222" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D223" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D224" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D225" t="n">
         <v>10</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D226" t="n">
         <v>10</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D227" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D228" t="n">
         <v>10</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D229" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D230" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D231" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D232" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D233" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4117,12 +4117,12 @@
         <v>29</v>
       </c>
       <c r="D234" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43954</v>
+        <v>43976</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D235" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43955</v>
+        <v>43977</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D236" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43956</v>
+        <v>43978</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D237" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D238" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D239" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D240" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,63 +4226,63 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D241" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D246" t="n">
         <v>0</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D254" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D255" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D256" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D257" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D258" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D259" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D260" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D261" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D262" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4581,12 +4581,12 @@
         <v>40</v>
       </c>
       <c r="D263" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,15 +4626,15 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D266" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D267" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D269" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D270" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D271" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4725,12 +4725,12 @@
         <v>24</v>
       </c>
       <c r="D272" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D273" t="n">
         <v>8</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D274" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D275" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D276" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D277" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D278" t="n">
         <v>7</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,15 +4834,15 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D279" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D280" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4866,15 +4866,15 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D281" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,15 +4882,15 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D282" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,15 +4898,15 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D283" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,15 +4930,15 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D285" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D286" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D287" t="n">
         <v>5</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,15 +4978,15 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D288" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,15 +4994,15 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D289" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5010,15 +5010,15 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D290" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D291" t="n">
         <v>13</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,15 +5042,15 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D292" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5058,15 +5058,15 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D293" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,15 +5074,15 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D294" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5090,15 +5090,15 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D295" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5106,15 +5106,15 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D296" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5122,15 +5122,15 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D297" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5138,15 +5138,15 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D298" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5154,15 +5154,15 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D299" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D300" t="n">
         <v>1</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D301" t="n">
         <v>1</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D302" t="n">
         <v>1</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D303" t="n">
         <v>1</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D304" t="n">
         <v>1</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D306" t="n">
         <v>1</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5282,15 +5282,15 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D307" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5298,15 +5298,15 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -5314,15 +5314,15 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>43973</v>
+        <v>43953</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -5330,15 +5330,15 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D311" t="n">
         <v>0</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>43977</v>
+        <v>43974</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -5397,12 +5397,12 @@
         <v>2</v>
       </c>
       <c r="D314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>43954</v>
+        <v>43975</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -5410,15 +5410,15 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D315" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>43955</v>
+        <v>43976</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -5426,15 +5426,15 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>43956</v>
+        <v>43977</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -5442,15 +5442,15 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D317" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>43957</v>
+        <v>43978</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -5458,15 +5458,15 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -5477,12 +5477,12 @@
         <v>11</v>
       </c>
       <c r="D319" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -5493,22 +5493,86 @@
         <v>11</v>
       </c>
       <c r="D320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>12</v>
+      </c>
+      <c r="D321" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>11</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>11</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>11</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C321" t="n">
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
         <v>11</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D325" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D325"/>
+  <dimension ref="A1:D333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43954</v>
+        <v>43979</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1586,15 +1586,15 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43955</v>
+        <v>43980</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1602,15 +1602,15 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>2</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1637,12 +1637,12 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1650,15 +1650,15 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1690,15 +1690,15 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1706,15 +1706,15 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1810,15 +1810,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1845,12 +1845,12 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,15 +1858,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,15 +1874,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1893,12 +1893,12 @@
         <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,15 +1906,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,15 +1970,15 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,15 +1986,15 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,15 +2002,15 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,15 +2018,15 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,15 +2050,15 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,15 +2066,15 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,15 +2098,15 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,15 +2114,15 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,15 +2130,15 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D112" t="n">
         <v>5</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113" t="n">
         <v>5</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D114" t="n">
         <v>5</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,15 +2210,15 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,15 +2226,15 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,15 +2258,15 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D118" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,15 +2290,15 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D121" t="n">
         <v>2</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,15 +2354,15 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D125" t="n">
         <v>2</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,15 +2386,15 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D127" t="n">
         <v>2</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,15 +2418,15 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,15 +2434,15 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D129" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="n">
         <v>3</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D131" t="n">
         <v>6</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D132" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" t="n">
         <v>6</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D134" t="n">
         <v>6</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D135" t="n">
         <v>6</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D137" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,15 +2594,15 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,15 +2610,15 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,15 +2626,15 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2738,15 +2738,15 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
+        <v>8</v>
+      </c>
+      <c r="D150" t="n">
         <v>3</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43954</v>
+        <v>43977</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,15 +2882,15 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43955</v>
+        <v>43978</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,15 +2898,15 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43956</v>
+        <v>43979</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43957</v>
+        <v>43980</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,15 +2930,15 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43960</v>
+        <v>43956</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,55 +2978,55 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43900</v>
+        <v>43957</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43901</v>
+        <v>43958</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43902</v>
+        <v>43959</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -3034,23 +3034,23 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43903</v>
+        <v>43960</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D168" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D170" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D171" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D172" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D173" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D174" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D175" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D176" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="D177" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="D178" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="D179" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="D180" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="D181" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="D182" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="D183" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="D184" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D185" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43898</v>
+        <v>43918</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43899</v>
+        <v>43919</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D188" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43931</v>
+        <v>43921</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D189" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43932</v>
+        <v>43898</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43933</v>
+        <v>43899</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="D191" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43934</v>
+        <v>43922</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="D192" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43935</v>
+        <v>43931</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D193" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43936</v>
+        <v>43932</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D194" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43937</v>
+        <v>43933</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D195" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43938</v>
+        <v>43934</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D196" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43939</v>
+        <v>43935</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D197" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43940</v>
+        <v>43936</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="D198" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43923</v>
+        <v>43937</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="D199" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D200" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43942</v>
+        <v>43939</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D201" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43943</v>
+        <v>43940</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D202" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43944</v>
+        <v>43923</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="D203" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43945</v>
+        <v>43941</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D204" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43946</v>
+        <v>43942</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D205" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43947</v>
+        <v>43943</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D206" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43948</v>
+        <v>43944</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D207" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43949</v>
+        <v>43945</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D208" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43950</v>
+        <v>43946</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D209" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43924</v>
+        <v>43947</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="D210" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43951</v>
+        <v>43948</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D211" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43925</v>
+        <v>43949</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="D212" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43926</v>
+        <v>43950</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="D213" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3797,12 +3797,12 @@
         <v>240</v>
       </c>
       <c r="D214" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43928</v>
+        <v>43951</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="D215" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="D216" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43930</v>
+        <v>43926</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="D217" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43952</v>
+        <v>43927</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
+        <v>240</v>
+      </c>
+      <c r="D218" t="n">
         <v>60</v>
-      </c>
-      <c r="D218" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43961</v>
+        <v>43928</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="D219" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43962</v>
+        <v>43929</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="D220" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43963</v>
+        <v>43930</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="D221" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43964</v>
+        <v>43952</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D222" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43965</v>
+        <v>43961</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D223" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43966</v>
+        <v>43962</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D224" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43967</v>
+        <v>43963</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D225" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43968</v>
+        <v>43964</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D226" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43969</v>
+        <v>43965</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D227" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43970</v>
+        <v>43966</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D228" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43953</v>
+        <v>43967</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D229" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43971</v>
+        <v>43968</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D230" t="n">
         <v>10</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43972</v>
+        <v>43969</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D231" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43973</v>
+        <v>43970</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4085,12 +4085,12 @@
         <v>35</v>
       </c>
       <c r="D232" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43974</v>
+        <v>43953</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D233" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43975</v>
+        <v>43971</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D234" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43976</v>
+        <v>43972</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4133,12 +4133,12 @@
         <v>31</v>
       </c>
       <c r="D235" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43977</v>
+        <v>43973</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D236" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43978</v>
+        <v>43974</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D237" t="n">
         <v>6</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43954</v>
+        <v>43975</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D238" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43955</v>
+        <v>43976</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D239" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43956</v>
+        <v>43977</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D240" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43957</v>
+        <v>43978</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D241" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43958</v>
+        <v>43979</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D242" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43959</v>
+        <v>43980</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D243" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43960</v>
+        <v>43954</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,111 +4274,111 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D244" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43900</v>
+        <v>43955</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43901</v>
+        <v>43956</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43902</v>
+        <v>43957</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43903</v>
+        <v>43958</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43904</v>
+        <v>43959</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43905</v>
+        <v>43960</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43907</v>
+        <v>43901</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43909</v>
+        <v>43903</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43910</v>
+        <v>43904</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43911</v>
+        <v>43905</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43912</v>
+        <v>43906</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D258" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43914</v>
+        <v>43908</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D259" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D260" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43916</v>
+        <v>43910</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D261" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43917</v>
+        <v>43911</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D262" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43918</v>
+        <v>43912</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,15 +4578,15 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D263" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43919</v>
+        <v>43913</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D264" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D265" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43921</v>
+        <v>43915</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,15 +4626,15 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D266" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43899</v>
+        <v>43917</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D269" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43931</v>
+        <v>43919</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D270" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43932</v>
+        <v>43920</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D271" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43933</v>
+        <v>43921</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,15 +4722,15 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D272" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43934</v>
+        <v>43898</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D273" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43935</v>
+        <v>43899</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D275" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43937</v>
+        <v>43931</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D276" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43938</v>
+        <v>43932</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D277" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43939</v>
+        <v>43933</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D278" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43940</v>
+        <v>43934</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,15 +4834,15 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D279" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43923</v>
+        <v>43935</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D280" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43941</v>
+        <v>43936</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4869,12 +4869,12 @@
         <v>24</v>
       </c>
       <c r="D281" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,15 +4882,15 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D282" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,15 +4898,15 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D283" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43944</v>
+        <v>43939</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4917,12 +4917,12 @@
         <v>18</v>
       </c>
       <c r="D284" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43945</v>
+        <v>43940</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,15 +4930,15 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D285" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43946</v>
+        <v>43923</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D286" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43947</v>
+        <v>43941</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4962,15 +4962,15 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D287" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43948</v>
+        <v>43942</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D288" t="n">
         <v>6</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43949</v>
+        <v>43943</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D289" t="n">
         <v>6</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43950</v>
+        <v>43944</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D290" t="n">
         <v>5</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43924</v>
+        <v>43945</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,15 +5026,15 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D291" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43951</v>
+        <v>43946</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D292" t="n">
         <v>5</v>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43925</v>
+        <v>43947</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5058,15 +5058,15 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D293" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43926</v>
+        <v>43948</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,15 +5074,15 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D294" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43927</v>
+        <v>43949</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5090,15 +5090,15 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D295" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43928</v>
+        <v>43950</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5106,15 +5106,15 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D296" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43929</v>
+        <v>43924</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5122,15 +5122,15 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D297" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43930</v>
+        <v>43951</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5138,15 +5138,15 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D298" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43952</v>
+        <v>43925</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5154,15 +5154,15 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D299" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43961</v>
+        <v>43926</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5170,15 +5170,15 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D300" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43962</v>
+        <v>43927</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -5186,15 +5186,15 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43963</v>
+        <v>43928</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -5202,15 +5202,15 @@
         </is>
       </c>
       <c r="C302" t="n">
+        <v>24</v>
+      </c>
+      <c r="D302" t="n">
         <v>10</v>
-      </c>
-      <c r="D302" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43964</v>
+        <v>43929</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -5218,15 +5218,15 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D303" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43965</v>
+        <v>43930</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -5234,15 +5234,15 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D304" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43966</v>
+        <v>43952</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5250,15 +5250,15 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43967</v>
+        <v>43961</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D306" t="n">
         <v>1</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43968</v>
+        <v>43962</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D307" t="n">
         <v>1</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43969</v>
+        <v>43963</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D308" t="n">
         <v>1</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>43970</v>
+        <v>43964</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D309" t="n">
         <v>1</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>43953</v>
+        <v>43965</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -5330,15 +5330,15 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D310" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>43971</v>
+        <v>43966</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -5346,15 +5346,15 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>43972</v>
+        <v>43967</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -5362,15 +5362,15 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>43973</v>
+        <v>43968</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -5378,15 +5378,15 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>43974</v>
+        <v>43969</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -5394,15 +5394,15 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>43975</v>
+        <v>43970</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -5410,15 +5410,15 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>43976</v>
+        <v>43953</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -5426,15 +5426,15 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>43977</v>
+        <v>43971</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -5442,15 +5442,15 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>43978</v>
+        <v>43972</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>43954</v>
+        <v>43973</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -5474,15 +5474,15 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D319" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>43955</v>
+        <v>43974</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -5490,15 +5490,15 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>43956</v>
+        <v>43975</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -5506,15 +5506,15 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>43957</v>
+        <v>43976</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -5522,15 +5522,15 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>43958</v>
+        <v>43977</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -5538,15 +5538,15 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>43959</v>
+        <v>43978</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -5554,25 +5554,153 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>2</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>2</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>11</v>
+      </c>
+      <c r="D327" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>11</v>
+      </c>
+      <c r="D328" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>12</v>
+      </c>
+      <c r="D329" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>11</v>
+      </c>
+      <c r="D330" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>11</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>11</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C325" t="n">
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
         <v>11</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D333" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D333"/>
+  <dimension ref="A1:D337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43955</v>
+        <v>43981</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1634,15 +1634,15 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1669,12 +1669,12 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1722,15 +1722,15 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1842,15 +1842,15 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,15 +1858,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1893,12 +1893,12 @@
         <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,15 +1922,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,15 +2002,15 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,15 +2018,15 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,15 +2034,15 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D105" t="n">
         <v>6</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D106" t="n">
         <v>6</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,15 +2114,15 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D110" t="n">
         <v>6</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,15 +2146,15 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D112" t="n">
         <v>5</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D113" t="n">
         <v>5</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" t="n">
         <v>5</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2245,12 +2245,12 @@
         <v>12</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,15 +2290,15 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,15 +2306,15 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="n">
         <v>2</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2389,12 +2389,12 @@
         <v>9</v>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,15 +2402,15 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D128" t="n">
         <v>2</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,15 +2450,15 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,15 +2466,15 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D131" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" t="n">
         <v>6</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D136" t="n">
         <v>6</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,15 +2594,15 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D139" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,15 +2610,15 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43971</v>
+        <v>43953</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43954</v>
+        <v>43980</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,15 +2946,15 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43956</v>
+        <v>43981</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D164" t="n">
         <v>2</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3013,12 +3013,12 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3029,12 +3029,12 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3050,39 +3050,39 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,15 +3106,15 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D171" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D172" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D173" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D174" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D175" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D176" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D177" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D178" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D179" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D180" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D181" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D182" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D183" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D184" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D185" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D186" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D187" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D188" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D189" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D193" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D194" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D195" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D196" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D197" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D198" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D199" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D200" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D201" t="n">
         <v>35</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D202" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D203" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D204" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D205" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D206" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D207" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D208" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D209" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D210" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D211" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D212" t="n">
         <v>21</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D213" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D214" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D215" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D216" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D217" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D218" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D219" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D220" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D221" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D222" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D223" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D224" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D225" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D226" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D227" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D228" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D229" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D230" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D231" t="n">
         <v>10</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D232" t="n">
         <v>10</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D233" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D234" t="n">
         <v>10</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D235" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D236" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D237" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D238" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D239" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4213,12 +4213,12 @@
         <v>29</v>
       </c>
       <c r="D240" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D241" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D242" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D243" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43954</v>
+        <v>43979</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D244" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43955</v>
+        <v>43980</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D245" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D246" t="n">
         <v>20</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43957</v>
+        <v>43981</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D247" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D248" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D249" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,63 +4370,63 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D250" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D262" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,15 +4578,15 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D263" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D264" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D265" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,15 +4626,15 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D266" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D267" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D268" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D269" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D270" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D271" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4725,12 +4725,12 @@
         <v>40</v>
       </c>
       <c r="D272" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D275" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D276" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D278" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,15 +4834,15 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D279" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D280" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4869,12 +4869,12 @@
         <v>24</v>
       </c>
       <c r="D281" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D282" t="n">
         <v>8</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,15 +4898,15 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D283" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4914,15 +4914,15 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D284" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,15 +4930,15 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D285" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D286" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D287" t="n">
         <v>7</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,15 +4978,15 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D288" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,15 +4994,15 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D289" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5010,15 +5010,15 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D290" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,15 +5026,15 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D291" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,15 +5042,15 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D292" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,15 +5074,15 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D294" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5090,15 +5090,15 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D295" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D296" t="n">
         <v>5</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5122,15 +5122,15 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D297" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5138,15 +5138,15 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D298" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5154,15 +5154,15 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D299" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D300" t="n">
         <v>13</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -5186,15 +5186,15 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D301" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -5202,15 +5202,15 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D302" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -5218,15 +5218,15 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D303" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -5234,15 +5234,15 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D304" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5250,15 +5250,15 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D305" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5266,15 +5266,15 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D306" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5282,15 +5282,15 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D307" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5298,15 +5298,15 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D308" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D309" t="n">
         <v>1</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D310" t="n">
         <v>1</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D311" t="n">
         <v>1</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D312" t="n">
         <v>1</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D313" t="n">
         <v>1</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D315" t="n">
         <v>1</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -5426,15 +5426,15 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D316" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -5442,15 +5442,15 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -5458,15 +5458,15 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>43973</v>
+        <v>43953</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -5474,15 +5474,15 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D320" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>43977</v>
+        <v>43974</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -5541,12 +5541,12 @@
         <v>2</v>
       </c>
       <c r="D323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>43978</v>
+        <v>43975</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>43979</v>
+        <v>43976</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -5573,12 +5573,12 @@
         <v>2</v>
       </c>
       <c r="D325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>43980</v>
+        <v>43977</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -5589,12 +5589,12 @@
         <v>2</v>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>43954</v>
+        <v>43978</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -5602,15 +5602,15 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D327" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>43955</v>
+        <v>43979</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -5618,15 +5618,15 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D328" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -5634,15 +5634,15 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -5653,12 +5653,12 @@
         <v>11</v>
       </c>
       <c r="D330" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>43958</v>
+        <v>43981</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -5666,15 +5666,15 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -5685,22 +5685,86 @@
         <v>11</v>
       </c>
       <c r="D332" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>12</v>
+      </c>
+      <c r="D333" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>11</v>
+      </c>
+      <c r="D334" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>11</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>11</v>
+      </c>
+      <c r="D336" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C333" t="n">
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
         <v>11</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D337" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D337"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43955</v>
+        <v>43982</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1650,15 +1650,15 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1685,12 +1685,12 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1738,15 +1738,15 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1858,15 +1858,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,15 +1874,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1909,12 +1909,12 @@
         <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,15 +1938,15 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,15 +2018,15 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,15 +2034,15 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,15 +2050,15 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D106" t="n">
         <v>6</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D107" t="n">
         <v>6</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,15 +2098,15 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,15 +2130,15 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D111" t="n">
         <v>6</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,15 +2162,15 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113" t="n">
         <v>5</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114" t="n">
         <v>5</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D117" t="n">
         <v>5</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2261,12 +2261,12 @@
         <v>12</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120" t="n">
         <v>2</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,15 +2306,15 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D121" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,15 +2322,15 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="n">
         <v>2</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2405,12 +2405,12 @@
         <v>9</v>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,15 +2418,15 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D129" t="n">
         <v>2</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,15 +2466,15 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D132" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D134" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="n">
         <v>6</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D137" t="n">
         <v>6</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,15 +2610,15 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,15 +2626,15 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,15 +2786,15 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43971</v>
+        <v>43953</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43954</v>
+        <v>43980</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43981</v>
+        <v>43954</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43955</v>
+        <v>43981</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43956</v>
+        <v>43982</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D166" t="n">
         <v>2</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3045,12 +3045,12 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3061,12 +3061,12 @@
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -3082,39 +3082,39 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,15 +3138,15 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D174" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D175" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D176" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D177" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D178" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D179" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D180" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D181" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D182" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D183" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D184" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D185" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D186" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D187" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D188" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D189" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D190" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D191" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D196" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D197" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D198" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D199" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D200" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D201" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D202" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D203" t="n">
         <v>35</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D204" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D205" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D206" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D207" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D208" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D209" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D210" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D211" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D212" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D213" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D214" t="n">
         <v>21</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D215" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D216" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D217" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D218" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D219" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D220" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D221" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D222" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D223" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D224" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D225" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D226" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D227" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D228" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D229" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D230" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D231" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D232" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D233" t="n">
         <v>10</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D234" t="n">
         <v>10</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D235" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D236" t="n">
         <v>10</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D237" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D238" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D239" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D240" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D241" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4245,12 +4245,12 @@
         <v>29</v>
       </c>
       <c r="D242" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D243" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D244" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D245" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43954</v>
+        <v>43979</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D246" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D247" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D248" t="n">
         <v>20</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43956</v>
+        <v>43981</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D249" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43957</v>
+        <v>43982</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D250" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D251" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D252" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,63 +4418,63 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D253" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43900</v>
+        <v>43958</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43901</v>
+        <v>43959</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43902</v>
+        <v>43960</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D258" t="n">
         <v>0</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D259" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,15 +4578,15 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D265" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,15 +4626,15 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D266" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D267" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D268" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D269" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D270" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D271" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,15 +4722,15 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D272" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D273" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D274" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4773,12 +4773,12 @@
         <v>40</v>
       </c>
       <c r="D275" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D278" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,15 +4834,15 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D279" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D280" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4866,15 +4866,15 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D281" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,15 +4882,15 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D282" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,15 +4898,15 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D283" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4917,12 +4917,12 @@
         <v>24</v>
       </c>
       <c r="D284" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D285" t="n">
         <v>8</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D286" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4962,15 +4962,15 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D287" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,15 +4978,15 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D288" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,15 +4994,15 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D289" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D290" t="n">
         <v>7</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,15 +5026,15 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D291" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,15 +5042,15 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D292" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5058,15 +5058,15 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D293" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,15 +5074,15 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D294" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5090,15 +5090,15 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D295" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5122,15 +5122,15 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D297" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5138,15 +5138,15 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D298" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D299" t="n">
         <v>5</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5170,15 +5170,15 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D300" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -5186,15 +5186,15 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D301" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -5202,15 +5202,15 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D302" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D303" t="n">
         <v>13</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -5234,15 +5234,15 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D304" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5250,15 +5250,15 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D305" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5266,15 +5266,15 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D306" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5282,15 +5282,15 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D307" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5298,15 +5298,15 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D308" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -5314,15 +5314,15 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D309" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -5330,15 +5330,15 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D310" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -5346,15 +5346,15 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D312" t="n">
         <v>1</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D313" t="n">
         <v>1</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D314" t="n">
         <v>1</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D315" t="n">
         <v>1</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D316" t="n">
         <v>1</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D318" t="n">
         <v>1</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -5474,15 +5474,15 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D319" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -5490,15 +5490,15 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -5506,15 +5506,15 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>43973</v>
+        <v>43953</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -5522,15 +5522,15 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D322" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D323" t="n">
         <v>0</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>43977</v>
+        <v>43974</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -5589,12 +5589,12 @@
         <v>2</v>
       </c>
       <c r="D326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>43978</v>
+        <v>43975</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>43979</v>
+        <v>43976</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -5621,12 +5621,12 @@
         <v>2</v>
       </c>
       <c r="D328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>43980</v>
+        <v>43977</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -5637,12 +5637,12 @@
         <v>2</v>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>43954</v>
+        <v>43978</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -5650,15 +5650,15 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D330" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -5666,15 +5666,15 @@
         </is>
       </c>
       <c r="C331" t="n">
+        <v>2</v>
+      </c>
+      <c r="D331" t="n">
         <v>1</v>
-      </c>
-      <c r="D331" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>43955</v>
+        <v>43980</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -5682,15 +5682,15 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -5698,15 +5698,15 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D333" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>43957</v>
+        <v>43981</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -5714,15 +5714,15 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>43958</v>
+        <v>43982</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -5730,15 +5730,15 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -5749,22 +5749,86 @@
         <v>11</v>
       </c>
       <c r="D336" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>12</v>
+      </c>
+      <c r="D337" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>11</v>
+      </c>
+      <c r="D338" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>11</v>
+      </c>
+      <c r="D339" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>11</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C337" t="n">
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
         <v>11</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D341"/>
+  <dimension ref="A1:D345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,15 +1754,15 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43900</v>
+        <v>43983</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1874,15 +1874,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,15 +1890,15 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1925,12 +1925,12 @@
         <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,15 +1954,15 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,15 +2034,15 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,15 +2050,15 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,15 +2066,15 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D106" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D107" t="n">
         <v>6</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D108" t="n">
         <v>6</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,15 +2114,15 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,15 +2146,15 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D112" t="n">
         <v>6</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,15 +2178,15 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D113" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D114" t="n">
         <v>5</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115" t="n">
         <v>5</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D117" t="n">
         <v>5</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D118" t="n">
         <v>5</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2277,12 +2277,12 @@
         <v>12</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D120" t="n">
         <v>2</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121" t="n">
         <v>2</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,15 +2322,15 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D122" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,15 +2338,15 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D125" t="n">
         <v>2</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="n">
         <v>2</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2421,12 +2421,12 @@
         <v>9</v>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,15 +2434,15 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D130" t="n">
         <v>2</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D133" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" t="n">
         <v>6</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D138" t="n">
         <v>6</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,15 +2626,15 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D141" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,15 +2802,15 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43971</v>
+        <v>43953</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43954</v>
+        <v>43980</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,15 +2978,15 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43981</v>
+        <v>43954</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43955</v>
+        <v>43982</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D167" t="n">
         <v>2</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3077,12 +3077,12 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -3114,31 +3114,31 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43901</v>
+        <v>43983</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D175" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D177" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D178" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D179" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D180" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D181" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D182" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D183" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D184" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D185" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D186" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D187" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D188" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D189" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D190" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D191" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D192" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D193" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D197" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D198" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D199" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D200" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D201" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D202" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D203" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D204" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D205" t="n">
         <v>35</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D206" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D207" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D208" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D209" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D210" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D211" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D212" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D213" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D214" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D215" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D216" t="n">
         <v>21</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D217" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D218" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D219" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D220" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D221" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D222" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D223" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D224" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D225" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D226" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D227" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D228" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D229" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D230" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D231" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D232" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D233" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D234" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D235" t="n">
         <v>10</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D236" t="n">
         <v>10</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D237" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D238" t="n">
         <v>10</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D239" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D240" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D241" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D242" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D243" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4277,12 +4277,12 @@
         <v>29</v>
       </c>
       <c r="D244" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D245" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D246" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D247" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43954</v>
+        <v>43979</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D248" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D249" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43982</v>
+        <v>43954</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D250" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43955</v>
+        <v>43981</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D251" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43956</v>
+        <v>43982</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D252" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D253" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D254" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4453,12 +4453,12 @@
         <v>39</v>
       </c>
       <c r="D255" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,63 +4466,63 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D256" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43900</v>
+        <v>43959</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43901</v>
+        <v>43960</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43902</v>
+        <v>43983</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D261" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,15 +4610,15 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,15 +4626,15 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D270" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D271" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,15 +4722,15 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D272" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D273" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D274" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D275" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D276" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D277" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4821,12 +4821,12 @@
         <v>40</v>
       </c>
       <c r="D278" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,15 +4834,15 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4866,15 +4866,15 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D281" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,15 +4882,15 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,15 +4898,15 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D283" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4914,15 +4914,15 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D284" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,15 +4930,15 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D285" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D286" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4965,12 +4965,12 @@
         <v>24</v>
       </c>
       <c r="D287" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D288" t="n">
         <v>8</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,15 +4994,15 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D289" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5010,15 +5010,15 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D290" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,15 +5026,15 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D291" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,15 +5042,15 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D292" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D293" t="n">
         <v>7</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,15 +5074,15 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D294" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5090,15 +5090,15 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D295" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5106,15 +5106,15 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D296" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5122,15 +5122,15 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D297" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5138,15 +5138,15 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D298" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5170,15 +5170,15 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D300" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -5186,15 +5186,15 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D301" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D302" t="n">
         <v>5</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -5218,15 +5218,15 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D303" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -5234,15 +5234,15 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D304" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5250,15 +5250,15 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D305" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D306" t="n">
         <v>13</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5282,15 +5282,15 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D307" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5298,15 +5298,15 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D308" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -5314,15 +5314,15 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D309" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -5330,15 +5330,15 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D310" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -5346,15 +5346,15 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D311" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -5362,15 +5362,15 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -5378,15 +5378,15 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -5394,15 +5394,15 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D314" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D315" t="n">
         <v>1</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D316" t="n">
         <v>1</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D317" t="n">
         <v>1</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D318" t="n">
         <v>1</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D319" t="n">
         <v>1</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D321" t="n">
         <v>1</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -5522,15 +5522,15 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D322" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -5538,15 +5538,15 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -5554,15 +5554,15 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>43973</v>
+        <v>43953</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -5570,15 +5570,15 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D326" t="n">
         <v>0</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>43977</v>
+        <v>43974</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -5637,12 +5637,12 @@
         <v>2</v>
       </c>
       <c r="D329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>43978</v>
+        <v>43975</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>43979</v>
+        <v>43976</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -5669,12 +5669,12 @@
         <v>2</v>
       </c>
       <c r="D331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>43980</v>
+        <v>43977</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -5685,12 +5685,12 @@
         <v>2</v>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>43954</v>
+        <v>43978</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -5698,15 +5698,15 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D333" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -5714,15 +5714,15 @@
         </is>
       </c>
       <c r="C334" t="n">
+        <v>2</v>
+      </c>
+      <c r="D334" t="n">
         <v>1</v>
-      </c>
-      <c r="D334" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D335" t="n">
         <v>0</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -5749,12 +5749,12 @@
         <v>11</v>
       </c>
       <c r="D336" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>43956</v>
+        <v>43981</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -5762,15 +5762,15 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>43957</v>
+        <v>43982</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -5778,15 +5778,15 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -5797,12 +5797,12 @@
         <v>11</v>
       </c>
       <c r="D339" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -5810,15 +5810,15 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D340" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -5830,6 +5830,70 @@
       </c>
       <c r="D341" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>11</v>
+      </c>
+      <c r="D342" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>11</v>
+      </c>
+      <c r="D343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>11</v>
+      </c>
+      <c r="D344" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D345"/>
+  <dimension ref="A1:D349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1770,15 +1770,15 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43900</v>
+        <v>43984</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1890,15 +1890,15 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,15 +1906,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1941,12 +1941,12 @@
         <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,15 +1970,15 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,15 +2050,15 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,15 +2066,15 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D107" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D108" t="n">
         <v>6</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D109" t="n">
         <v>6</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,15 +2130,15 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,15 +2162,15 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D113" t="n">
         <v>6</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,15 +2194,15 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" t="n">
         <v>5</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D118" t="n">
         <v>5</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D119" t="n">
         <v>5</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2293,12 +2293,12 @@
         <v>12</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
         <v>2</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,15 +2338,15 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,15 +2354,15 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D126" t="n">
         <v>2</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="n">
         <v>2</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2437,12 +2437,12 @@
         <v>9</v>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,15 +2450,15 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D131" t="n">
         <v>2</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,15 +2498,15 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D134" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" t="n">
         <v>6</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D139" t="n">
         <v>6</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2642,15 +2642,15 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,15 +2818,15 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43971</v>
+        <v>43953</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43954</v>
+        <v>43980</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,15 +2994,15 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43981</v>
+        <v>43954</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43955</v>
+        <v>43982</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D168" t="n">
         <v>2</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3093,12 +3093,12 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43983</v>
+        <v>43960</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,23 +3138,23 @@
         </is>
       </c>
       <c r="C173" t="n">
+        <v>5</v>
+      </c>
+      <c r="D173" t="n">
         <v>1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43900</v>
+        <v>43983</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -3162,15 +3162,15 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43901</v>
+        <v>43984</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3186,15 +3186,15 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D177" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D178" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D179" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D180" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D181" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D182" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D183" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D184" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D185" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D186" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D187" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D188" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D189" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D190" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D191" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D192" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D193" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D194" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D195" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D199" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D200" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D201" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D202" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D203" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D204" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D205" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D206" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D207" t="n">
         <v>35</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D208" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D209" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D210" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D211" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D212" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D213" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D214" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D215" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D216" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D217" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D218" t="n">
         <v>21</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D219" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D220" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D221" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D222" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D223" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D224" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D225" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D226" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D227" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D228" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D229" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D230" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D231" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D232" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D233" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D234" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D235" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D236" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D237" t="n">
         <v>10</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D238" t="n">
         <v>10</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D239" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D240" t="n">
         <v>10</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D241" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D242" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D243" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D244" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D245" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4309,12 +4309,12 @@
         <v>29</v>
       </c>
       <c r="D246" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D247" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D248" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D249" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43954</v>
+        <v>43979</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D250" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D251" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43982</v>
+        <v>43954</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D252" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43955</v>
+        <v>43981</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D253" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43956</v>
+        <v>43982</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D254" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D255" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D256" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4485,12 +4485,12 @@
         <v>39</v>
       </c>
       <c r="D257" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D258" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43983</v>
+        <v>43959</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,63 +4514,63 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D259" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43900</v>
+        <v>43960</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43901</v>
+        <v>43983</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43902</v>
+        <v>43984</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D264" t="n">
         <v>0</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D265" t="n">
         <v>0</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D266" t="n">
         <v>0</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,15 +4642,15 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,15 +4658,15 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,15 +4674,15 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,15 +4722,15 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D273" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D274" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D275" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D276" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D277" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D278" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,15 +4834,15 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D279" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D280" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4869,12 +4869,12 @@
         <v>40</v>
       </c>
       <c r="D281" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,15 +4882,15 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,15 +4898,15 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4914,15 +4914,15 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D284" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,15 +4930,15 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D285" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D286" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4962,15 +4962,15 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D287" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,15 +4978,15 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D288" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,15 +4994,15 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D289" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5013,12 +5013,12 @@
         <v>24</v>
       </c>
       <c r="D290" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D291" t="n">
         <v>8</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,15 +5042,15 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D292" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5058,15 +5058,15 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D293" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,15 +5074,15 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D294" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5090,15 +5090,15 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D295" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D296" t="n">
         <v>7</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5122,15 +5122,15 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D297" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5138,15 +5138,15 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D298" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5154,15 +5154,15 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D299" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5170,15 +5170,15 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D300" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -5186,15 +5186,15 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D301" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -5218,15 +5218,15 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D303" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -5234,15 +5234,15 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D304" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D305" t="n">
         <v>5</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5266,15 +5266,15 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D306" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5282,15 +5282,15 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D307" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5298,15 +5298,15 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D308" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D309" t="n">
         <v>13</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -5330,15 +5330,15 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D310" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -5346,15 +5346,15 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D311" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -5362,15 +5362,15 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D312" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -5378,15 +5378,15 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D313" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -5394,15 +5394,15 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D314" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -5410,15 +5410,15 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D315" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -5426,15 +5426,15 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D316" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -5442,15 +5442,15 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D318" t="n">
         <v>1</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D319" t="n">
         <v>1</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D321" t="n">
         <v>1</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D322" t="n">
         <v>1</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D324" t="n">
         <v>1</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -5570,15 +5570,15 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D325" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -5586,15 +5586,15 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -5602,15 +5602,15 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>43973</v>
+        <v>43953</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -5618,15 +5618,15 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D329" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>43977</v>
+        <v>43974</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -5685,12 +5685,12 @@
         <v>2</v>
       </c>
       <c r="D332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>43978</v>
+        <v>43975</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>43979</v>
+        <v>43976</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -5717,12 +5717,12 @@
         <v>2</v>
       </c>
       <c r="D334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>43980</v>
+        <v>43977</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -5733,12 +5733,12 @@
         <v>2</v>
       </c>
       <c r="D335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>43954</v>
+        <v>43978</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -5746,15 +5746,15 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D336" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -5762,15 +5762,15 @@
         </is>
       </c>
       <c r="C337" t="n">
+        <v>2</v>
+      </c>
+      <c r="D337" t="n">
         <v>1</v>
-      </c>
-      <c r="D337" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D338" t="n">
         <v>0</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -5797,12 +5797,12 @@
         <v>11</v>
       </c>
       <c r="D339" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>43956</v>
+        <v>43981</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -5810,15 +5810,15 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>43957</v>
+        <v>43982</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -5826,15 +5826,15 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -5845,12 +5845,12 @@
         <v>11</v>
       </c>
       <c r="D342" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -5858,15 +5858,15 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D343" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -5882,17 +5882,81 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>11</v>
+      </c>
+      <c r="D345" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>11</v>
+      </c>
+      <c r="D346" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>11</v>
+      </c>
+      <c r="D347" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C345" t="n">
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
         <v>1</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+      <c r="D349" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D349"/>
+  <dimension ref="A1:D353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1786,15 +1786,15 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43900</v>
+        <v>43985</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1906,15 +1906,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,15 +1922,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1957,12 +1957,12 @@
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,15 +1986,15 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,15 +2066,15 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,15 +2098,15 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D109" t="n">
         <v>6</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D110" t="n">
         <v>6</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,15 +2146,15 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2178,15 +2178,15 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,15 +2210,15 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D117" t="n">
         <v>5</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D119" t="n">
         <v>5</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D120" t="n">
         <v>5</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2309,12 +2309,12 @@
         <v>12</v>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,15 +2354,15 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D124" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,15 +2370,15 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D127" t="n">
         <v>2</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="n">
         <v>2</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2453,12 +2453,12 @@
         <v>9</v>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2466,15 +2466,15 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D132" t="n">
         <v>2</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2514,15 +2514,15 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D135" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" t="n">
         <v>6</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D140" t="n">
         <v>6</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2658,15 +2658,15 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2706,15 +2706,15 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,15 +2834,15 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43971</v>
+        <v>43953</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43954</v>
+        <v>43980</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43981</v>
+        <v>43954</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43955</v>
+        <v>43982</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3058,15 +3058,15 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D169" t="n">
         <v>2</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3109,12 +3109,12 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D173" t="n">
         <v>1</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43983</v>
+        <v>43960</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,15 +3154,15 @@
         </is>
       </c>
       <c r="C174" t="n">
+        <v>5</v>
+      </c>
+      <c r="D174" t="n">
         <v>1</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3178,15 +3178,15 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43900</v>
+        <v>43984</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -3194,15 +3194,15 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43901</v>
+        <v>43985</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3218,15 +3218,15 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3234,15 +3234,15 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D179" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D180" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D181" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D182" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D183" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D184" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D185" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D186" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D187" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D188" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D189" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D190" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D191" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D192" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D193" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D194" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D195" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D196" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D197" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D201" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D202" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D203" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D204" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D205" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D206" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D207" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D208" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D209" t="n">
         <v>35</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D210" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,15 +3746,15 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D211" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D212" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D213" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D214" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D215" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D216" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D217" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D218" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D219" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D220" t="n">
         <v>21</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D221" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D222" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D223" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D224" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D225" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D226" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D227" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D228" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D229" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D230" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D231" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D232" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D233" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D234" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D235" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D236" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D237" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D238" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D239" t="n">
         <v>10</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D240" t="n">
         <v>10</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,15 +4226,15 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D241" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D242" t="n">
         <v>10</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D243" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,15 +4274,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D244" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D245" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D246" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D247" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4341,12 +4341,12 @@
         <v>29</v>
       </c>
       <c r="D248" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D249" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4370,15 +4370,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D250" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D251" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43954</v>
+        <v>43979</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D252" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D253" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43982</v>
+        <v>43954</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D254" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43955</v>
+        <v>43981</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D255" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43956</v>
+        <v>43982</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D256" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D257" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D258" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4517,12 +4517,12 @@
         <v>39</v>
       </c>
       <c r="D259" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D260" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43983</v>
+        <v>43959</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D261" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43984</v>
+        <v>43960</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,63 +4562,63 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D262" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43900</v>
+        <v>43983</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43901</v>
+        <v>43984</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43902</v>
+        <v>43985</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D266" t="n">
         <v>0</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D267" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D268" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D269" t="n">
         <v>0</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,15 +4690,15 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,15 +4706,15 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,15 +4722,15 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D276" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D277" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D278" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,15 +4834,15 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D279" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D280" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4866,15 +4866,15 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D281" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,15 +4882,15 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D282" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,15 +4898,15 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D283" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4917,12 +4917,12 @@
         <v>40</v>
       </c>
       <c r="D284" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,15 +4930,15 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4962,15 +4962,15 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D287" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,15 +4978,15 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D288" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,15 +4994,15 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5010,15 +5010,15 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D290" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,15 +5026,15 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D291" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,15 +5042,15 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D292" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5061,12 +5061,12 @@
         <v>24</v>
       </c>
       <c r="D293" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D294" t="n">
         <v>8</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5090,15 +5090,15 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D295" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5106,15 +5106,15 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D296" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5122,15 +5122,15 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D297" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5138,15 +5138,15 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D298" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D299" t="n">
         <v>7</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5170,15 +5170,15 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D300" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -5186,15 +5186,15 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D301" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -5202,15 +5202,15 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D302" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -5218,15 +5218,15 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D303" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -5234,15 +5234,15 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D304" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5266,15 +5266,15 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D306" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5282,15 +5282,15 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D307" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D308" t="n">
         <v>5</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -5314,15 +5314,15 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D309" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -5330,15 +5330,15 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D310" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -5346,15 +5346,15 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D311" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D312" t="n">
         <v>13</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -5378,15 +5378,15 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D313" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -5394,15 +5394,15 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D314" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -5410,15 +5410,15 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D315" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -5426,15 +5426,15 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D316" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -5442,15 +5442,15 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D317" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -5458,15 +5458,15 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D318" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -5474,15 +5474,15 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -5490,15 +5490,15 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D321" t="n">
         <v>1</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D322" t="n">
         <v>1</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D323" t="n">
         <v>1</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D324" t="n">
         <v>1</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D325" t="n">
         <v>1</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D327" t="n">
         <v>1</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -5618,15 +5618,15 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D328" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -5634,15 +5634,15 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -5650,15 +5650,15 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>43973</v>
+        <v>43953</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -5666,15 +5666,15 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D332" t="n">
         <v>0</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>43977</v>
+        <v>43974</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -5733,12 +5733,12 @@
         <v>2</v>
       </c>
       <c r="D335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>43978</v>
+        <v>43975</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>43979</v>
+        <v>43976</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -5765,12 +5765,12 @@
         <v>2</v>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>43980</v>
+        <v>43977</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -5781,12 +5781,12 @@
         <v>2</v>
       </c>
       <c r="D338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>43954</v>
+        <v>43978</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -5794,15 +5794,15 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D339" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -5810,15 +5810,15 @@
         </is>
       </c>
       <c r="C340" t="n">
+        <v>2</v>
+      </c>
+      <c r="D340" t="n">
         <v>1</v>
-      </c>
-      <c r="D340" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D341" t="n">
         <v>0</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -5845,12 +5845,12 @@
         <v>11</v>
       </c>
       <c r="D342" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>43956</v>
+        <v>43981</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -5858,15 +5858,15 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>43957</v>
+        <v>43982</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -5874,15 +5874,15 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -5893,12 +5893,12 @@
         <v>11</v>
       </c>
       <c r="D345" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -5906,15 +5906,15 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D346" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>43983</v>
+        <v>43958</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -5938,25 +5938,89 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>11</v>
+      </c>
+      <c r="D349" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>11</v>
+      </c>
+      <c r="D350" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
         <v>43984</v>
       </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>Vest</t>
-        </is>
-      </c>
-      <c r="C349" t="n">
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
         <v>1</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Vest</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0</v>
+      </c>
+      <c r="D353" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/admissions_reg.xlsx
+++ b/data/admissions_reg.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:D357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1802,15 +1802,15 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43900</v>
+        <v>43986</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Nord</t>
+          <t>Midt</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1922,15 +1922,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1938,15 +1938,15 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1973,12 +1973,12 @@
         <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2002,15 +2002,15 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2098,15 +2098,15 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2114,15 +2114,15 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D110" t="n">
         <v>6</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D111" t="n">
         <v>6</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43898</v>
+        <v>43921</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2162,15 +2162,15 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43922</v>
+        <v>43899</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2194,15 +2194,15 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D115" t="n">
         <v>6</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2226,15 +2226,15 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D117" t="n">
         <v>5</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D118" t="n">
         <v>5</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D120" t="n">
         <v>5</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D121" t="n">
         <v>5</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2325,12 +2325,12 @@
         <v>12</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43923</v>
+        <v>43940</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2370,15 +2370,15 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43941</v>
+        <v>43923</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2386,15 +2386,15 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D128" t="n">
         <v>2</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="n">
         <v>2</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2469,12 +2469,12 @@
         <v>9</v>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2482,15 +2482,15 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D133" t="n">
         <v>2</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2530,15 +2530,15 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2546,15 +2546,15 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D136" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43951</v>
+        <v>43924</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D137" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43925</v>
+        <v>43951</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D138" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" t="n">
         <v>6</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D141" t="n">
         <v>6</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43952</v>
+        <v>43930</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2674,15 +2674,15 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D144" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43961</v>
+        <v>43952</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2690,15 +2690,15 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2722,15 +2722,15 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43953</v>
+        <v>43970</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2850,15 +2850,15 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43971</v>
+        <v>43953</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2866,15 +2866,15 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43954</v>
+        <v>43980</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3026,15 +3026,15 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43981</v>
+        <v>43954</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3042,15 +3042,15 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43955</v>
+        <v>43982</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3074,15 +3074,15 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D170" t="n">
         <v>2</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3125,12 +3125,12 @@
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43983</v>
+        <v>43960</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3170,15 +3170,15 @@
         </is>
       </c>
       <c r="C175" t="n">
+        <v>5</v>
+      </c>
+      <c r="D175" t="n">
         <v>1</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3210,15 +3210,15 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43900</v>
+        <v>43985</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -3226,15 +3226,15 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43901</v>
+        <v>43986</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Sør-Øst</t>
+          <t>Nord</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3250,15 +3250,15 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3266,15 +3266,15 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D181" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3282,15 +3282,15 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D182" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3298,15 +3298,15 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D183" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D184" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3330,15 +3330,15 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D185" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3346,15 +3346,15 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D186" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3362,15 +3362,15 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D187" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D188" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3394,15 +3394,15 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D189" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3410,15 +3410,15 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D190" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D191" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3442,15 +3442,15 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D192" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3458,15 +3458,15 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D193" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3474,15 +3474,15 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D194" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3490,15 +3490,15 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D195" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3506,15 +3506,15 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D196" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D197" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3538,15 +3538,15 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D198" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D199" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43898</v>
+        <v>43920</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3570,15 +3570,15 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43899</v>
+        <v>43921</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3586,15 +3586,15 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43922</v>
+        <v>43898</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43931</v>
+        <v>43899</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D203" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43932</v>
+        <v>43922</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D204" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3650,15 +3650,15 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D205" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3666,15 +3666,15 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D206" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D207" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3698,15 +3698,15 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D208" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3714,15 +3714,15 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D209" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3730,15 +3730,15 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D210" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D211" t="n">
         <v>35</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D212" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3778,15 +3778,15 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D213" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3794,15 +3794,15 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D214" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43942</v>
+        <v>43923</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3810,15 +3810,15 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D215" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3826,15 +3826,15 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D216" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3842,15 +3842,15 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D217" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3858,15 +3858,15 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D218" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3874,15 +3874,15 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D219" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3890,15 +3890,15 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D220" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3906,15 +3906,15 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D221" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D222" t="n">
         <v>21</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3938,15 +3938,15 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D223" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3954,15 +3954,15 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D224" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3970,15 +3970,15 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D225" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3986,15 +3986,15 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D226" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4002,15 +4002,15 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D227" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4018,15 +4018,15 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D228" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4034,15 +4034,15 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D229" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4050,15 +4050,15 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D230" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4066,15 +4066,15 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D231" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43952</v>
+        <v>43929</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4082,15 +4082,15 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D232" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43961</v>
+        <v>43930</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4098,15 +4098,15 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D233" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43962</v>
+        <v>43952</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4114,15 +4114,15 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D234" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4130,15 +4130,15 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D235" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4146,15 +4146,15 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D236" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4162,15 +4162,15 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D237" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4178,15 +4178,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D238" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D239" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4210,15 +4210,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D240" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D241" t="n">
         <v>10</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D242" t="n">
         <v>10</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4258,15 +4258,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D243" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D244" t="n">
         <v>10</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43972</v>
+        <v>43953</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4290,15 +4290,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D245" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4306,15 +4306,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D246" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4322,15 +4322,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D247" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4338,15 +4338,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D248" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4354,15 +4354,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D249" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4373,12 +4373,12 @@
         <v>29</v>
       </c>
       <c r="D250" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4386,15 +4386,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D251" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4402,15 +4402,15 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D252" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4418,15 +4418,15 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D253" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43954</v>
+        <v>43979</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D254" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4450,15 +4450,15 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D255" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43982</v>
+        <v>43954</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D256" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43955</v>
+        <v>43981</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D257" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43956</v>
+        <v>43982</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D258" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4514,15 +4514,15 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D259" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D260" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4549,12 +4549,12 @@
         <v>39</v>
       </c>
       <c r="D261" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4562,15 +4562,15 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D262" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43983</v>
+        <v>43959</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4578,15 +4578,15 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D263" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43984</v>
+        <v>43960</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4594,15 +4594,15 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D264" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43985</v>
+        <v>43983</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4618,55 +4618,55 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43900</v>
+        <v>43984</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43901</v>
+        <v>43985</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43902</v>
+        <v>43986</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Vest</t>
+          <t>Sør-Øst</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D269" t="n">
         <v>0</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D270" t="n">
         <v>0</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4738,15 +4738,15 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4754,15 +4754,15 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D278" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4834,15 +4834,15 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D279" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4850,15 +4850,15 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D280" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4866,15 +4866,15 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D281" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4882,15 +4882,15 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D282" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4898,15 +4898,15 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D283" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4914,15 +4914,15 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D284" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4930,15 +4930,15 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D285" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D286" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4965,12 +4965,12 @@
         <v>40</v>
       </c>
       <c r="D287" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4978,15 +4978,15 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43899</v>
+        <v>43920</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4994,15 +4994,15 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -5010,15 +5010,15 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D290" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -5026,15 +5026,15 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D291" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43932</v>
+        <v>43899</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -5042,15 +5042,15 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D292" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -5058,15 +5058,15 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D293" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -5074,15 +5074,15 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D294" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -5090,15 +5090,15 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D295" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -5109,12 +5109,12 @@
         <v>24</v>
       </c>
       <c r="D296" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D297" t="n">
         <v>8</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -5138,15 +5138,15 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D298" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -5154,15 +5154,15 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D299" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -5170,15 +5170,15 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D300" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -5186,15 +5186,15 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D301" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D302" t="n">
         <v>7</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -5218,15 +5218,15 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D303" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -5234,15 +5234,15 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D304" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5250,15 +5250,15 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D305" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5266,15 +5266,15 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D306" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5282,15 +5282,15 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D307" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -5314,15 +5314,15 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D309" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -5330,15 +5330,15 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D310" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D311" t="n">
         <v>5</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>43924</v>
+        <v>43948</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -5362,15 +5362,15 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D312" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -5378,15 +5378,15 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D313" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>43925</v>
+        <v>43950</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -5394,15 +5394,15 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D314" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D315" t="n">
         <v>13</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -5426,15 +5426,15 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D316" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -5442,15 +5442,15 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D317" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -5458,15 +5458,15 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D318" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -5474,15 +5474,15 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D319" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -5490,15 +5490,15 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D320" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>43961</v>
+        <v>43929</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -5506,15 +5506,15 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>43962</v>
+        <v>43930</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -5522,15 +5522,15 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D322" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -5538,15 +5538,15 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D324" t="n">
         <v>1</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D325" t="n">
         <v>1</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D326" t="n">
         <v>1</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D327" t="n">
         <v>1</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D328" t="n">
         <v>1</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D330" t="n">
         <v>1</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>43953</v>
+        <v>43968</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -5666,15 +5666,15 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D331" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -5682,15 +5682,15 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -5698,15 +5698,15 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>43973</v>
+        <v>43953</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -5714,15 +5714,15 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D335" t="n">
         <v>0</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>43977</v>
+        <v>43974</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -5781,12 +5781,12 @@
         <v>2</v>
       </c>
       <c r="D338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>43978</v>
+        <v>43975</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>43979</v>
+        <v>43976</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -5813,12 +5813,12 @@
         <v>2</v>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>43980</v>
+        <v>43977</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -5829,12 +5829,12 @@
         <v>2</v>
       </c>
       <c r="D341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>43954</v>
+        <v>43978</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -5842,15 +5842,15 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D342" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -5858,15 +5858,15 @@
         </is>
       </c>
       <c r="C343" t="n">
+        <v>2</v>
+      </c>
+      <c r="D343" t="n">
         <v>1</v>
-      </c>
-      <c r="D343" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D344" t="n">
         <v>0</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -5893,12 +5893,12 @@
         <v>11</v>
       </c>
       <c r="D345" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>43956</v>
+        <v>43981</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -5906,15 +5906,15 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>43957</v>
+        <v>43982</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -5922,15 +5922,15 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -5941,12 +5941,12 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -5954,15 +5954,15 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D349" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="351">
       <c r="A351" s=